--- a/Test_case_vizsgaremek-weiszd1119.xlsx
+++ b/Test_case_vizsgaremek-weiszd1119.xlsx
@@ -1,26 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felhasználó\IdeaProjects\vizsgaremek-weiszd1119\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0771495-1213-428F-AA4B-7AD9B2C19674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18557" windowHeight="5597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="tesztesetek (test case)" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="hibák (bug)" sheetId="2" r:id="rId5"/>
+    <sheet name="tesztesetek (test case)" sheetId="1" r:id="rId1"/>
+    <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F1">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Azt jelzi, hogy a teszt lefutásához mely kapcsolódó teszteknek kell működnie
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Azt jelzi, hogy a teszt lefutásához mely kapcsolódó teszteknek kell működnie
 	-Weisz Dávid</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -232,20 +249,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>See test datas in registerSource.json file</t>
     </r>
@@ -280,19 +297,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">Username: weiszd1119
 Password: Temp1119
@@ -300,9 +317,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
       </rPr>
       <t>[expected URL]</t>
     </r>
@@ -338,30 +355,30 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">See test datas in loginSource.json file
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>[expected URL]</t>
     </r>
@@ -399,19 +416,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/about/
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Helvetica Neue"/>
-        <color theme="1"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">Tags URL = expected URLs
 https://lennertamas.github.io/blondesite/tags/css/
@@ -425,10 +442,10 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>https://lennertamas.github.io/blondesite/tags/themes/</t>
     </r>
@@ -464,19 +481,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/about/
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t xml:space="preserve">Links URL = expected URLs
 https://github.com/gohugoio/hugo/blob/master/LICENSE
@@ -489,10 +506,10 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>https://github.com/gohugoio</t>
     </r>
@@ -522,10 +539,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/post/emoji-support/
 Pages URLs = expected URLs
@@ -533,9 +550,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t>https://lennertamas.github.io/blondesite/post/math-typesetting/
 https://lennertamas.github.io/blondesite/post/placeholder-text/
@@ -663,20 +680,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/contact/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>YourName = "Neville Longbottom"
 EmailAddress = "nevillelongbottom@roxfort.com"
@@ -717,20 +734,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/contact/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>YourName = "Remus Lupin"
 EmailAddress = "remuslupin@roxfort.com"
@@ -761,19 +778,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/contact/
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t>See test datas in contactSource.json file</t>
     </r>
@@ -810,20 +827,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/contact/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>YourName = "Neville Longbottom"
 EmailAddress = "nevillelongbottom@roxfort.com"
@@ -860,21 +877,21 @@
   <si>
     <r>
       <rPr>
+        <i/>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Helvetica Neue"/>
-        <i/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/about/
 </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <i/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
       </rPr>
       <t>"syntax"
 "generator"
@@ -915,19 +932,19 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/post/markdown-syntax/
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
       </rPr>
       <t>"Bob"
 "Alice"</t>
@@ -1001,20 +1018,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF434343"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t xml:space="preserve">https://lennertamas.github.io/blondesite/post/image-test/
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Helvetica Neue"/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
       </rPr>
       <t>https://lennertamas.github.io/blondesite/img/prism.jpg</t>
     </r>
@@ -1129,90 +1146,105 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="17">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF434343"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF1155CC"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF1155CC"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1220,7 +1252,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1242,7 +1274,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thick">
         <color rgb="FFFFFFFF"/>
@@ -1256,222 +1294,332 @@
       <bottom style="thick">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="21">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFE598"/>
           <bgColor rgb="FFFFE598"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEA9999"/>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE598"/>
+          <bgColor rgb="FFFFE598"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFBDBDBD"/>
           <bgColor rgb="FFBDBDBD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="tesztesetek (test case)-style">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    <tableStyle name="tesztesetek (test case)-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AD13" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AD13" headerRowCount="0">
   <tableColumns count="30">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
-    <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
-    <tableColumn name="Column27" id="27"/>
-    <tableColumn name="Column28" id="28"/>
-    <tableColumn name="Column29" id="29"/>
-    <tableColumn name="Column30" id="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Column29"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Column30"/>
   </tableColumns>
-  <tableStyleInfo name="tesztesetek (test case)-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="tesztesetek (test case)-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -1481,7 +1629,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1671,38 +1819,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD972"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.86"/>
-    <col customWidth="1" min="2" max="4" width="16.86"/>
-    <col customWidth="1" min="5" max="5" width="31.0"/>
-    <col customWidth="1" min="6" max="7" width="26.57"/>
-    <col customWidth="1" min="8" max="8" width="28.86"/>
-    <col customWidth="1" min="9" max="9" width="12.29"/>
-    <col customWidth="1" min="10" max="10" width="9.86"/>
-    <col customWidth="1" min="11" max="11" width="47.43"/>
-    <col customWidth="1" min="12" max="12" width="48.71"/>
-    <col customWidth="1" min="13" max="13" width="19.29"/>
-    <col customWidth="1" min="14" max="14" width="19.43"/>
-    <col customWidth="1" min="15" max="15" width="24.86"/>
-    <col customWidth="1" min="16" max="16" width="28.14"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="47.375" customWidth="1"/>
+    <col min="12" max="12" width="48.75" customWidth="1"/>
+    <col min="13" max="13" width="19.25" customWidth="1"/>
+    <col min="14" max="14" width="19.375" customWidth="1"/>
+    <col min="15" max="15" width="24.875" customWidth="1"/>
+    <col min="16" max="16" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:30" ht="62.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1914,7 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" ht="92.4">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1830,12 +1978,12 @@
       <c r="AC2" s="8"/>
       <c r="AD2" s="9"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30" ht="57.75">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
@@ -1894,12 +2042,12 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:30" ht="69.3">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
@@ -1958,12 +2106,12 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:30" ht="92.4">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
@@ -2022,12 +2170,12 @@
       <c r="AC5" s="8"/>
       <c r="AD5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30" ht="103.95">
       <c r="A6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>28</v>
@@ -2086,12 +2234,12 @@
       <c r="AC6" s="8"/>
       <c r="AD6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30" ht="80.849999999999994">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>28</v>
@@ -2150,12 +2298,12 @@
       <c r="AC7" s="8"/>
       <c r="AD7" s="9"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30" ht="92.4">
       <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>28</v>
@@ -2214,12 +2362,12 @@
       <c r="AC8" s="8"/>
       <c r="AD8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:30" ht="138.6">
       <c r="A9" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>73</v>
@@ -2278,12 +2426,12 @@
       <c r="AC9" s="8"/>
       <c r="AD9" s="9"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:30" ht="127.05">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>73</v>
@@ -2342,12 +2490,12 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="9"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" ht="103.95">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>73</v>
@@ -2406,12 +2554,12 @@
       <c r="AC11" s="8"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30" ht="57.75">
       <c r="A12" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>73</v>
@@ -2470,12 +2618,12 @@
       <c r="AC12" s="8"/>
       <c r="AD12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" ht="23.1">
       <c r="A13" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B13" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>73</v>
@@ -2534,7 +2682,7 @@
       <c r="AC13" s="17"/>
       <c r="AD13" s="18"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30" ht="57.75">
       <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
@@ -2598,7 +2746,7 @@
       <c r="AC14" s="8"/>
       <c r="AD14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:30" ht="57.75">
       <c r="A15" s="5" t="s">
         <v>118</v>
       </c>
@@ -2662,12 +2810,12 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="9"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:30" ht="92.4">
       <c r="A16" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>124</v>
@@ -2726,12 +2874,12 @@
       <c r="AC16" s="8"/>
       <c r="AD16" s="9"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30" ht="115.5">
       <c r="A17" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B17" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>124</v>
@@ -2790,12 +2938,12 @@
       <c r="AC17" s="8"/>
       <c r="AD17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" ht="103.95">
       <c r="A18" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>124</v>
@@ -2854,12 +3002,12 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:30" ht="173.25">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B19" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>124</v>
@@ -2918,12 +3066,12 @@
       <c r="AC19" s="8"/>
       <c r="AD19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" ht="80.849999999999994">
       <c r="A20" s="20" t="s">
         <v>151</v>
       </c>
       <c r="B20" s="20">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>124</v>
@@ -2982,12 +3130,12 @@
       <c r="AC20" s="23"/>
       <c r="AD20" s="24"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:30" ht="103.95">
       <c r="A21" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B21" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>124</v>
@@ -3046,12 +3194,12 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:30" ht="103.95">
       <c r="A22" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B22" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>124</v>
@@ -3110,12 +3258,12 @@
       <c r="AC22" s="8"/>
       <c r="AD22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:30" ht="46.2">
       <c r="A23" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B23" s="14">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>124</v>
@@ -3174,12 +3322,12 @@
       <c r="AC23" s="17"/>
       <c r="AD23" s="18"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:30" ht="57.75">
       <c r="A24" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B24" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>124</v>
@@ -3238,7 +3386,7 @@
       <c r="AC24" s="8"/>
       <c r="AD24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" ht="34.65">
       <c r="A25" s="14" t="s">
         <v>183</v>
       </c>
@@ -3302,7 +3450,7 @@
       <c r="AC25" s="17"/>
       <c r="AD25" s="18"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:30" ht="15.8" customHeight="1">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -3333,7 +3481,7 @@
       <c r="AB26" s="25"/>
       <c r="AC26" s="25"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:30" ht="15.8" customHeight="1">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -3364,7 +3512,7 @@
       <c r="AB27" s="25"/>
       <c r="AC27" s="25"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:30" ht="15.8" customHeight="1">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3395,7 +3543,7 @@
       <c r="AB28" s="25"/>
       <c r="AC28" s="25"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:30" ht="15.8" customHeight="1">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -3426,7 +3574,7 @@
       <c r="AB29" s="25"/>
       <c r="AC29" s="25"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:30" ht="15.8" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -3457,7 +3605,7 @@
       <c r="AB30" s="25"/>
       <c r="AC30" s="25"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:30" ht="15.8" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
@@ -3488,7 +3636,7 @@
       <c r="AB31" s="25"/>
       <c r="AC31" s="25"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:30" ht="15.8" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -3519,7 +3667,7 @@
       <c r="AB32" s="25"/>
       <c r="AC32" s="25"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:29" ht="15.8" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -3550,7 +3698,7 @@
       <c r="AB33" s="25"/>
       <c r="AC33" s="25"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:29" ht="15.8" customHeight="1">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -3581,7 +3729,7 @@
       <c r="AB34" s="25"/>
       <c r="AC34" s="25"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:29" ht="15.8" customHeight="1">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
@@ -3612,7 +3760,7 @@
       <c r="AB35" s="25"/>
       <c r="AC35" s="25"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:29" ht="15.8" customHeight="1">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
@@ -3643,7 +3791,7 @@
       <c r="AB36" s="25"/>
       <c r="AC36" s="25"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:29" ht="15.8" customHeight="1">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
@@ -3674,7 +3822,7 @@
       <c r="AB37" s="25"/>
       <c r="AC37" s="25"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:29" ht="15.8" customHeight="1">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
@@ -3705,7 +3853,7 @@
       <c r="AB38" s="25"/>
       <c r="AC38" s="25"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:29" ht="15.8" customHeight="1">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
@@ -3736,7 +3884,7 @@
       <c r="AB39" s="25"/>
       <c r="AC39" s="25"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:29" ht="15.8" customHeight="1">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -3767,7 +3915,7 @@
       <c r="AB40" s="25"/>
       <c r="AC40" s="25"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:29" ht="15.8" customHeight="1">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -3798,7 +3946,7 @@
       <c r="AB41" s="25"/>
       <c r="AC41" s="25"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:29" ht="15.8" customHeight="1">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -3829,7 +3977,7 @@
       <c r="AB42" s="25"/>
       <c r="AC42" s="25"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:29" ht="15.8" customHeight="1">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
@@ -3860,7 +4008,7 @@
       <c r="AB43" s="25"/>
       <c r="AC43" s="25"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:29" ht="15.8" customHeight="1">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -3891,7 +4039,7 @@
       <c r="AB44" s="25"/>
       <c r="AC44" s="25"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:29" ht="15.8" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
@@ -3922,7 +4070,7 @@
       <c r="AB45" s="25"/>
       <c r="AC45" s="25"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:29" ht="15.8" customHeight="1">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
@@ -3953,7 +4101,7 @@
       <c r="AB46" s="25"/>
       <c r="AC46" s="25"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:29" ht="15.8" customHeight="1">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
@@ -3984,7 +4132,7 @@
       <c r="AB47" s="25"/>
       <c r="AC47" s="25"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:29" ht="15.8" customHeight="1">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -4015,7 +4163,7 @@
       <c r="AB48" s="25"/>
       <c r="AC48" s="25"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:29" ht="15.8" customHeight="1">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -4046,7 +4194,7 @@
       <c r="AB49" s="25"/>
       <c r="AC49" s="25"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:29" ht="15.8" customHeight="1">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -4077,7 +4225,7 @@
       <c r="AB50" s="25"/>
       <c r="AC50" s="25"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:29" ht="15.8" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
@@ -4108,7 +4256,7 @@
       <c r="AB51" s="25"/>
       <c r="AC51" s="25"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:29" ht="15.8" customHeight="1">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
@@ -4139,7 +4287,7 @@
       <c r="AB52" s="25"/>
       <c r="AC52" s="25"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:29" ht="15.8" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
@@ -4170,7 +4318,7 @@
       <c r="AB53" s="25"/>
       <c r="AC53" s="25"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:29" ht="15.8" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
@@ -4201,7 +4349,7 @@
       <c r="AB54" s="25"/>
       <c r="AC54" s="25"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:29" ht="15.8" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
@@ -4232,7 +4380,7 @@
       <c r="AB55" s="25"/>
       <c r="AC55" s="25"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:29" ht="15.8" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -4263,7 +4411,7 @@
       <c r="AB56" s="25"/>
       <c r="AC56" s="25"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:29" ht="15.8" customHeight="1">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
@@ -4294,7 +4442,7 @@
       <c r="AB57" s="25"/>
       <c r="AC57" s="25"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:29" ht="15.8" customHeight="1">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -4325,7 +4473,7 @@
       <c r="AB58" s="25"/>
       <c r="AC58" s="25"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:29" ht="15.8" customHeight="1">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
@@ -4356,7 +4504,7 @@
       <c r="AB59" s="25"/>
       <c r="AC59" s="25"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:29" ht="15.8" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
@@ -4387,7 +4535,7 @@
       <c r="AB60" s="25"/>
       <c r="AC60" s="25"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:29" ht="15.8" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
@@ -4418,7 +4566,7 @@
       <c r="AB61" s="25"/>
       <c r="AC61" s="25"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:29" ht="15.8" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -4449,7 +4597,7 @@
       <c r="AB62" s="25"/>
       <c r="AC62" s="25"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:29" ht="15.8" customHeight="1">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4480,7 +4628,7 @@
       <c r="AB63" s="25"/>
       <c r="AC63" s="25"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:29" ht="15.8" customHeight="1">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -4511,7 +4659,7 @@
       <c r="AB64" s="25"/>
       <c r="AC64" s="25"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:29" ht="15.8" customHeight="1">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
@@ -4542,7 +4690,7 @@
       <c r="AB65" s="25"/>
       <c r="AC65" s="25"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:29" ht="15.8" customHeight="1">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
@@ -4573,7 +4721,7 @@
       <c r="AB66" s="25"/>
       <c r="AC66" s="25"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:29" ht="15.8" customHeight="1">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
@@ -4604,7 +4752,7 @@
       <c r="AB67" s="25"/>
       <c r="AC67" s="25"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:29" ht="15.8" customHeight="1">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -4635,7 +4783,7 @@
       <c r="AB68" s="25"/>
       <c r="AC68" s="25"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:29" ht="15.8" customHeight="1">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -4666,7 +4814,7 @@
       <c r="AB69" s="25"/>
       <c r="AC69" s="25"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:29" ht="15.8" customHeight="1">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -4697,7 +4845,7 @@
       <c r="AB70" s="25"/>
       <c r="AC70" s="25"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:29" ht="15.8" customHeight="1">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
@@ -4728,7 +4876,7 @@
       <c r="AB71" s="25"/>
       <c r="AC71" s="25"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:29" ht="15.8" customHeight="1">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
@@ -4759,7 +4907,7 @@
       <c r="AB72" s="25"/>
       <c r="AC72" s="25"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:29" ht="15.8" customHeight="1">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
@@ -4790,7 +4938,7 @@
       <c r="AB73" s="25"/>
       <c r="AC73" s="25"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:29" ht="15.8" customHeight="1">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
@@ -4821,7 +4969,7 @@
       <c r="AB74" s="25"/>
       <c r="AC74" s="25"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:29" ht="15.8" customHeight="1">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
@@ -4852,7 +5000,7 @@
       <c r="AB75" s="25"/>
       <c r="AC75" s="25"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:29" ht="15.8" customHeight="1">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
@@ -4883,7 +5031,7 @@
       <c r="AB76" s="25"/>
       <c r="AC76" s="25"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:29" ht="15.8" customHeight="1">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
@@ -4914,7 +5062,7 @@
       <c r="AB77" s="25"/>
       <c r="AC77" s="25"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:29" ht="15.8" customHeight="1">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
@@ -4945,7 +5093,7 @@
       <c r="AB78" s="25"/>
       <c r="AC78" s="25"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:29" ht="15.8" customHeight="1">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
@@ -4976,7 +5124,7 @@
       <c r="AB79" s="25"/>
       <c r="AC79" s="25"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:29" ht="15.8" customHeight="1">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
@@ -5007,7 +5155,7 @@
       <c r="AB80" s="25"/>
       <c r="AC80" s="25"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:29" ht="15.8" customHeight="1">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
@@ -5038,7 +5186,7 @@
       <c r="AB81" s="25"/>
       <c r="AC81" s="25"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:29" ht="15.8" customHeight="1">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
@@ -5069,7 +5217,7 @@
       <c r="AB82" s="25"/>
       <c r="AC82" s="25"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:29" ht="15.8" customHeight="1">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
@@ -5100,7 +5248,7 @@
       <c r="AB83" s="25"/>
       <c r="AC83" s="25"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:29" ht="15.8" customHeight="1">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
@@ -5131,7 +5279,7 @@
       <c r="AB84" s="25"/>
       <c r="AC84" s="25"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:29" ht="15.8" customHeight="1">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
@@ -5162,7 +5310,7 @@
       <c r="AB85" s="25"/>
       <c r="AC85" s="25"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:29" ht="15.8" customHeight="1">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
@@ -5193,7 +5341,7 @@
       <c r="AB86" s="25"/>
       <c r="AC86" s="25"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:29" ht="15.8" customHeight="1">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
@@ -5224,7 +5372,7 @@
       <c r="AB87" s="25"/>
       <c r="AC87" s="25"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:29" ht="15.8" customHeight="1">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -5255,7 +5403,7 @@
       <c r="AB88" s="25"/>
       <c r="AC88" s="25"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:29" ht="15.8" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
@@ -5286,7 +5434,7 @@
       <c r="AB89" s="25"/>
       <c r="AC89" s="25"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:29" ht="15.8" customHeight="1">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -5317,7 +5465,7 @@
       <c r="AB90" s="25"/>
       <c r="AC90" s="25"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:29" ht="15.8" customHeight="1">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
@@ -5348,7 +5496,7 @@
       <c r="AB91" s="25"/>
       <c r="AC91" s="25"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:29" ht="15.8" customHeight="1">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -5379,7 +5527,7 @@
       <c r="AB92" s="25"/>
       <c r="AC92" s="25"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:29" ht="15.8" customHeight="1">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -5410,7 +5558,7 @@
       <c r="AB93" s="25"/>
       <c r="AC93" s="25"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:29" ht="15.8" customHeight="1">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -5441,7 +5589,7 @@
       <c r="AB94" s="25"/>
       <c r="AC94" s="25"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:29" ht="15.8" customHeight="1">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -5472,7 +5620,7 @@
       <c r="AB95" s="25"/>
       <c r="AC95" s="25"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:29" ht="15.8" customHeight="1">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -5503,7 +5651,7 @@
       <c r="AB96" s="25"/>
       <c r="AC96" s="25"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:29" ht="15.8" customHeight="1">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
@@ -5534,7 +5682,7 @@
       <c r="AB97" s="25"/>
       <c r="AC97" s="25"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:29" ht="15.8" customHeight="1">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
@@ -5565,7 +5713,7 @@
       <c r="AB98" s="25"/>
       <c r="AC98" s="25"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:29" ht="15.8" customHeight="1">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
@@ -5596,7 +5744,7 @@
       <c r="AB99" s="25"/>
       <c r="AC99" s="25"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:29" ht="15.8" customHeight="1">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
@@ -5627,7 +5775,7 @@
       <c r="AB100" s="25"/>
       <c r="AC100" s="25"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:29" ht="15.8" customHeight="1">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
@@ -5658,7 +5806,7 @@
       <c r="AB101" s="25"/>
       <c r="AC101" s="25"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:29" ht="15.8" customHeight="1">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
@@ -5689,7 +5837,7 @@
       <c r="AB102" s="25"/>
       <c r="AC102" s="25"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:29" ht="15.8" customHeight="1">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
@@ -5720,7 +5868,7 @@
       <c r="AB103" s="25"/>
       <c r="AC103" s="25"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:29" ht="15.8" customHeight="1">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
@@ -5751,7 +5899,7 @@
       <c r="AB104" s="25"/>
       <c r="AC104" s="25"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:29" ht="15.8" customHeight="1">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
@@ -5782,7 +5930,7 @@
       <c r="AB105" s="25"/>
       <c r="AC105" s="25"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:29" ht="15.8" customHeight="1">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
@@ -5813,7 +5961,7 @@
       <c r="AB106" s="25"/>
       <c r="AC106" s="25"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:29" ht="15.8" customHeight="1">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
@@ -5844,7 +5992,7 @@
       <c r="AB107" s="25"/>
       <c r="AC107" s="25"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:29" ht="15.8" customHeight="1">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
@@ -5875,7 +6023,7 @@
       <c r="AB108" s="25"/>
       <c r="AC108" s="25"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:29" ht="15.8" customHeight="1">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
@@ -5906,7 +6054,7 @@
       <c r="AB109" s="25"/>
       <c r="AC109" s="25"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:29" ht="15.8" customHeight="1">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
@@ -5937,7 +6085,7 @@
       <c r="AB110" s="25"/>
       <c r="AC110" s="25"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:29" ht="15.8" customHeight="1">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
@@ -5968,7 +6116,7 @@
       <c r="AB111" s="25"/>
       <c r="AC111" s="25"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:29" ht="15.8" customHeight="1">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
@@ -5999,7 +6147,7 @@
       <c r="AB112" s="25"/>
       <c r="AC112" s="25"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:29" ht="15.8" customHeight="1">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
@@ -6030,7 +6178,7 @@
       <c r="AB113" s="25"/>
       <c r="AC113" s="25"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:29" ht="15.8" customHeight="1">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
@@ -6061,7 +6209,7 @@
       <c r="AB114" s="25"/>
       <c r="AC114" s="25"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:29" ht="15.8" customHeight="1">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
@@ -6092,7 +6240,7 @@
       <c r="AB115" s="25"/>
       <c r="AC115" s="25"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:29" ht="15.8" customHeight="1">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
@@ -6123,7 +6271,7 @@
       <c r="AB116" s="25"/>
       <c r="AC116" s="25"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:29" ht="15.8" customHeight="1">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
@@ -6154,7 +6302,7 @@
       <c r="AB117" s="25"/>
       <c r="AC117" s="25"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:29" ht="15.8" customHeight="1">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
@@ -6185,7 +6333,7 @@
       <c r="AB118" s="25"/>
       <c r="AC118" s="25"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:29" ht="15.8" customHeight="1">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
@@ -6216,7 +6364,7 @@
       <c r="AB119" s="25"/>
       <c r="AC119" s="25"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:29" ht="15.8" customHeight="1">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
@@ -6247,7 +6395,7 @@
       <c r="AB120" s="25"/>
       <c r="AC120" s="25"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:29" ht="15.8" customHeight="1">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
@@ -6278,7 +6426,7 @@
       <c r="AB121" s="25"/>
       <c r="AC121" s="25"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:29" ht="15.8" customHeight="1">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
@@ -6309,7 +6457,7 @@
       <c r="AB122" s="25"/>
       <c r="AC122" s="25"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:29" ht="15.8" customHeight="1">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
@@ -6340,7 +6488,7 @@
       <c r="AB123" s="25"/>
       <c r="AC123" s="25"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:29" ht="15.8" customHeight="1">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
@@ -6371,7 +6519,7 @@
       <c r="AB124" s="25"/>
       <c r="AC124" s="25"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:29" ht="15.8" customHeight="1">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
@@ -6402,7 +6550,7 @@
       <c r="AB125" s="25"/>
       <c r="AC125" s="25"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:29" ht="15.8" customHeight="1">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
@@ -6433,7 +6581,7 @@
       <c r="AB126" s="25"/>
       <c r="AC126" s="25"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:29" ht="15.8" customHeight="1">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
@@ -6464,7 +6612,7 @@
       <c r="AB127" s="25"/>
       <c r="AC127" s="25"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:29" ht="15.8" customHeight="1">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
@@ -6495,7 +6643,7 @@
       <c r="AB128" s="25"/>
       <c r="AC128" s="25"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:29" ht="15.8" customHeight="1">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
@@ -6526,7 +6674,7 @@
       <c r="AB129" s="25"/>
       <c r="AC129" s="25"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:29" ht="15.8" customHeight="1">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
@@ -6557,7 +6705,7 @@
       <c r="AB130" s="25"/>
       <c r="AC130" s="25"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:29" ht="15.8" customHeight="1">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
@@ -6588,7 +6736,7 @@
       <c r="AB131" s="25"/>
       <c r="AC131" s="25"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:29" ht="15.8" customHeight="1">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -6619,7 +6767,7 @@
       <c r="AB132" s="25"/>
       <c r="AC132" s="25"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:29" ht="15.8" customHeight="1">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
@@ -6650,7 +6798,7 @@
       <c r="AB133" s="25"/>
       <c r="AC133" s="25"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:29" ht="15.8" customHeight="1">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
@@ -6681,7 +6829,7 @@
       <c r="AB134" s="25"/>
       <c r="AC134" s="25"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:29" ht="15.8" customHeight="1">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
@@ -6712,7 +6860,7 @@
       <c r="AB135" s="25"/>
       <c r="AC135" s="25"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:29" ht="15.8" customHeight="1">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
@@ -6743,7 +6891,7 @@
       <c r="AB136" s="25"/>
       <c r="AC136" s="25"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:29" ht="15.8" customHeight="1">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
@@ -6774,7 +6922,7 @@
       <c r="AB137" s="25"/>
       <c r="AC137" s="25"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:29" ht="15.8" customHeight="1">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
@@ -6805,7 +6953,7 @@
       <c r="AB138" s="25"/>
       <c r="AC138" s="25"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:29" ht="15.8" customHeight="1">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
@@ -6836,7 +6984,7 @@
       <c r="AB139" s="25"/>
       <c r="AC139" s="25"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:29" ht="15.8" customHeight="1">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
@@ -6867,7 +7015,7 @@
       <c r="AB140" s="25"/>
       <c r="AC140" s="25"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:29" ht="15.8" customHeight="1">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
@@ -6898,7 +7046,7 @@
       <c r="AB141" s="25"/>
       <c r="AC141" s="25"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:29" ht="15.8" customHeight="1">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
@@ -6929,7 +7077,7 @@
       <c r="AB142" s="25"/>
       <c r="AC142" s="25"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:29" ht="15.8" customHeight="1">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
@@ -6960,7 +7108,7 @@
       <c r="AB143" s="25"/>
       <c r="AC143" s="25"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:29" ht="15.8" customHeight="1">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="25"/>
@@ -6991,7 +7139,7 @@
       <c r="AB144" s="25"/>
       <c r="AC144" s="25"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:29" ht="15.8" customHeight="1">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="25"/>
@@ -7022,7 +7170,7 @@
       <c r="AB145" s="25"/>
       <c r="AC145" s="25"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:29" ht="15.8" customHeight="1">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
@@ -7053,7 +7201,7 @@
       <c r="AB146" s="25"/>
       <c r="AC146" s="25"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:29" ht="15.8" customHeight="1">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
@@ -7084,7 +7232,7 @@
       <c r="AB147" s="25"/>
       <c r="AC147" s="25"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:29" ht="15.8" customHeight="1">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
@@ -7115,7 +7263,7 @@
       <c r="AB148" s="25"/>
       <c r="AC148" s="25"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:29" ht="15.8" customHeight="1">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
@@ -7146,7 +7294,7 @@
       <c r="AB149" s="25"/>
       <c r="AC149" s="25"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:29" ht="15.8" customHeight="1">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
@@ -7177,7 +7325,7 @@
       <c r="AB150" s="25"/>
       <c r="AC150" s="25"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:29" ht="15.8" customHeight="1">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="25"/>
@@ -7208,7 +7356,7 @@
       <c r="AB151" s="25"/>
       <c r="AC151" s="25"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:29" ht="15.8" customHeight="1">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="25"/>
@@ -7239,7 +7387,7 @@
       <c r="AB152" s="25"/>
       <c r="AC152" s="25"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:29" ht="15.8" customHeight="1">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
@@ -7270,7 +7418,7 @@
       <c r="AB153" s="25"/>
       <c r="AC153" s="25"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:29" ht="15.8" customHeight="1">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
@@ -7301,7 +7449,7 @@
       <c r="AB154" s="25"/>
       <c r="AC154" s="25"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:29" ht="15.8" customHeight="1">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
@@ -7332,7 +7480,7 @@
       <c r="AB155" s="25"/>
       <c r="AC155" s="25"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:29" ht="15.8" customHeight="1">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
@@ -7363,7 +7511,7 @@
       <c r="AB156" s="25"/>
       <c r="AC156" s="25"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:29" ht="15.8" customHeight="1">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
@@ -7394,7 +7542,7 @@
       <c r="AB157" s="25"/>
       <c r="AC157" s="25"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:29" ht="15.8" customHeight="1">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="25"/>
@@ -7425,7 +7573,7 @@
       <c r="AB158" s="25"/>
       <c r="AC158" s="25"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:29" ht="15.8" customHeight="1">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="25"/>
@@ -7456,7 +7604,7 @@
       <c r="AB159" s="25"/>
       <c r="AC159" s="25"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:29" ht="15.8" customHeight="1">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
@@ -7487,7 +7635,7 @@
       <c r="AB160" s="25"/>
       <c r="AC160" s="25"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:29" ht="15.8" customHeight="1">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
@@ -7518,7 +7666,7 @@
       <c r="AB161" s="25"/>
       <c r="AC161" s="25"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:29" ht="15.8" customHeight="1">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
@@ -7549,7 +7697,7 @@
       <c r="AB162" s="25"/>
       <c r="AC162" s="25"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:29" ht="15.8" customHeight="1">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
@@ -7580,7 +7728,7 @@
       <c r="AB163" s="25"/>
       <c r="AC163" s="25"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:29" ht="15.8" customHeight="1">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
@@ -7611,7 +7759,7 @@
       <c r="AB164" s="25"/>
       <c r="AC164" s="25"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:29" ht="15.8" customHeight="1">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="25"/>
@@ -7642,7 +7790,7 @@
       <c r="AB165" s="25"/>
       <c r="AC165" s="25"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:29" ht="15.8" customHeight="1">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="25"/>
@@ -7673,7 +7821,7 @@
       <c r="AB166" s="25"/>
       <c r="AC166" s="25"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:29" ht="15.8" customHeight="1">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
@@ -7704,7 +7852,7 @@
       <c r="AB167" s="25"/>
       <c r="AC167" s="25"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:29" ht="15.8" customHeight="1">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
@@ -7735,7 +7883,7 @@
       <c r="AB168" s="25"/>
       <c r="AC168" s="25"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:29" ht="15.8" customHeight="1">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
@@ -7766,7 +7914,7 @@
       <c r="AB169" s="25"/>
       <c r="AC169" s="25"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:29" ht="15.8" customHeight="1">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
@@ -7797,7 +7945,7 @@
       <c r="AB170" s="25"/>
       <c r="AC170" s="25"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:29" ht="15.8" customHeight="1">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
@@ -7828,7 +7976,7 @@
       <c r="AB171" s="25"/>
       <c r="AC171" s="25"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:29" ht="15.8" customHeight="1">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="25"/>
@@ -7859,7 +8007,7 @@
       <c r="AB172" s="25"/>
       <c r="AC172" s="25"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:29" ht="15.8" customHeight="1">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="25"/>
@@ -7890,7 +8038,7 @@
       <c r="AB173" s="25"/>
       <c r="AC173" s="25"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:29" ht="15.8" customHeight="1">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -7921,7 +8069,7 @@
       <c r="AB174" s="25"/>
       <c r="AC174" s="25"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:29" ht="15.8" customHeight="1">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
@@ -7952,7 +8100,7 @@
       <c r="AB175" s="25"/>
       <c r="AC175" s="25"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:29" ht="15.8" customHeight="1">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
@@ -7983,7 +8131,7 @@
       <c r="AB176" s="25"/>
       <c r="AC176" s="25"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:29" ht="15.8" customHeight="1">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
@@ -8014,7 +8162,7 @@
       <c r="AB177" s="25"/>
       <c r="AC177" s="25"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:29" ht="15.8" customHeight="1">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
@@ -8045,7 +8193,7 @@
       <c r="AB178" s="25"/>
       <c r="AC178" s="25"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:29" ht="15.8" customHeight="1">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="25"/>
@@ -8076,7 +8224,7 @@
       <c r="AB179" s="25"/>
       <c r="AC179" s="25"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:29" ht="15.8" customHeight="1">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="25"/>
@@ -8107,7 +8255,7 @@
       <c r="AB180" s="25"/>
       <c r="AC180" s="25"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:29" ht="15.8" customHeight="1">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
@@ -8138,7 +8286,7 @@
       <c r="AB181" s="25"/>
       <c r="AC181" s="25"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:29" ht="15.8" customHeight="1">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
@@ -8169,7 +8317,7 @@
       <c r="AB182" s="25"/>
       <c r="AC182" s="25"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:29" ht="15.8" customHeight="1">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
@@ -8200,7 +8348,7 @@
       <c r="AB183" s="25"/>
       <c r="AC183" s="25"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:29" ht="15.8" customHeight="1">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
@@ -8231,7 +8379,7 @@
       <c r="AB184" s="25"/>
       <c r="AC184" s="25"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:29" ht="15.8" customHeight="1">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
@@ -8262,7 +8410,7 @@
       <c r="AB185" s="25"/>
       <c r="AC185" s="25"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:29" ht="15.8" customHeight="1">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="25"/>
@@ -8293,7 +8441,7 @@
       <c r="AB186" s="25"/>
       <c r="AC186" s="25"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:29" ht="15.8" customHeight="1">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="25"/>
@@ -8324,7 +8472,7 @@
       <c r="AB187" s="25"/>
       <c r="AC187" s="25"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:29" ht="15.8" customHeight="1">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
@@ -8355,7 +8503,7 @@
       <c r="AB188" s="25"/>
       <c r="AC188" s="25"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:29" ht="15.8" customHeight="1">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
@@ -8386,7 +8534,7 @@
       <c r="AB189" s="25"/>
       <c r="AC189" s="25"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:29" ht="15.8" customHeight="1">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
@@ -8417,7 +8565,7 @@
       <c r="AB190" s="25"/>
       <c r="AC190" s="25"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:29" ht="15.8" customHeight="1">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
@@ -8448,7 +8596,7 @@
       <c r="AB191" s="25"/>
       <c r="AC191" s="25"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:29" ht="15.8" customHeight="1">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
@@ -8479,878 +8627,874 @@
       <c r="AB192" s="25"/>
       <c r="AC192" s="25"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.8" customHeight="1"/>
+    <row r="194" ht="15.8" customHeight="1"/>
+    <row r="195" ht="15.8" customHeight="1"/>
+    <row r="196" ht="15.8" customHeight="1"/>
+    <row r="197" ht="15.8" customHeight="1"/>
+    <row r="198" ht="15.8" customHeight="1"/>
+    <row r="199" ht="15.8" customHeight="1"/>
+    <row r="200" ht="15.8" customHeight="1"/>
+    <row r="201" ht="15.8" customHeight="1"/>
+    <row r="202" ht="15.8" customHeight="1"/>
+    <row r="203" ht="15.8" customHeight="1"/>
+    <row r="204" ht="15.8" customHeight="1"/>
+    <row r="205" ht="15.8" customHeight="1"/>
+    <row r="206" ht="15.8" customHeight="1"/>
+    <row r="207" ht="15.8" customHeight="1"/>
+    <row r="208" ht="15.8" customHeight="1"/>
+    <row r="209" ht="15.8" customHeight="1"/>
+    <row r="210" ht="15.8" customHeight="1"/>
+    <row r="211" ht="15.8" customHeight="1"/>
+    <row r="212" ht="15.8" customHeight="1"/>
+    <row r="213" ht="15.8" customHeight="1"/>
+    <row r="214" ht="15.8" customHeight="1"/>
+    <row r="215" ht="15.8" customHeight="1"/>
+    <row r="216" ht="15.8" customHeight="1"/>
+    <row r="217" ht="15.8" customHeight="1"/>
+    <row r="218" ht="15.8" customHeight="1"/>
+    <row r="219" ht="15.8" customHeight="1"/>
+    <row r="220" ht="15.8" customHeight="1"/>
+    <row r="221" ht="15.8" customHeight="1"/>
+    <row r="222" ht="15.8" customHeight="1"/>
+    <row r="223" ht="15.8" customHeight="1"/>
+    <row r="224" ht="15.8" customHeight="1"/>
+    <row r="225" ht="15.8" customHeight="1"/>
+    <row r="226" ht="15.8" customHeight="1"/>
+    <row r="227" ht="15.8" customHeight="1"/>
+    <row r="228" ht="15.8" customHeight="1"/>
+    <row r="229" ht="15.8" customHeight="1"/>
+    <row r="230" ht="15.8" customHeight="1"/>
+    <row r="231" ht="15.8" customHeight="1"/>
+    <row r="232" ht="15.8" customHeight="1"/>
+    <row r="233" ht="15.8" customHeight="1"/>
+    <row r="234" ht="15.8" customHeight="1"/>
+    <row r="235" ht="15.8" customHeight="1"/>
+    <row r="236" ht="15.8" customHeight="1"/>
+    <row r="237" ht="15.8" customHeight="1"/>
+    <row r="238" ht="15.8" customHeight="1"/>
+    <row r="239" ht="15.8" customHeight="1"/>
+    <row r="240" ht="15.8" customHeight="1"/>
+    <row r="241" ht="15.8" customHeight="1"/>
+    <row r="242" ht="15.8" customHeight="1"/>
+    <row r="243" ht="15.8" customHeight="1"/>
+    <row r="244" ht="15.8" customHeight="1"/>
+    <row r="245" ht="15.8" customHeight="1"/>
+    <row r="246" ht="15.8" customHeight="1"/>
+    <row r="247" ht="15.8" customHeight="1"/>
+    <row r="248" ht="15.8" customHeight="1"/>
+    <row r="249" ht="15.8" customHeight="1"/>
+    <row r="250" ht="15.8" customHeight="1"/>
+    <row r="251" ht="15.8" customHeight="1"/>
+    <row r="252" ht="15.8" customHeight="1"/>
+    <row r="253" ht="15.8" customHeight="1"/>
+    <row r="254" ht="15.8" customHeight="1"/>
+    <row r="255" ht="15.8" customHeight="1"/>
+    <row r="256" ht="15.8" customHeight="1"/>
+    <row r="257" ht="15.8" customHeight="1"/>
+    <row r="258" ht="15.8" customHeight="1"/>
+    <row r="259" ht="15.8" customHeight="1"/>
+    <row r="260" ht="15.8" customHeight="1"/>
+    <row r="261" ht="15.8" customHeight="1"/>
+    <row r="262" ht="15.8" customHeight="1"/>
+    <row r="263" ht="15.8" customHeight="1"/>
+    <row r="264" ht="15.8" customHeight="1"/>
+    <row r="265" ht="15.8" customHeight="1"/>
+    <row r="266" ht="15.8" customHeight="1"/>
+    <row r="267" ht="15.8" customHeight="1"/>
+    <row r="268" ht="15.8" customHeight="1"/>
+    <row r="269" ht="15.8" customHeight="1"/>
+    <row r="270" ht="15.8" customHeight="1"/>
+    <row r="271" ht="15.8" customHeight="1"/>
+    <row r="272" ht="15.8" customHeight="1"/>
+    <row r="273" ht="15.8" customHeight="1"/>
+    <row r="274" ht="15.8" customHeight="1"/>
+    <row r="275" ht="15.8" customHeight="1"/>
+    <row r="276" ht="15.8" customHeight="1"/>
+    <row r="277" ht="15.8" customHeight="1"/>
+    <row r="278" ht="15.8" customHeight="1"/>
+    <row r="279" ht="15.8" customHeight="1"/>
+    <row r="280" ht="15.8" customHeight="1"/>
+    <row r="281" ht="15.8" customHeight="1"/>
+    <row r="282" ht="15.8" customHeight="1"/>
+    <row r="283" ht="15.8" customHeight="1"/>
+    <row r="284" ht="15.8" customHeight="1"/>
+    <row r="285" ht="15.8" customHeight="1"/>
+    <row r="286" ht="15.8" customHeight="1"/>
+    <row r="287" ht="15.8" customHeight="1"/>
+    <row r="288" ht="15.8" customHeight="1"/>
+    <row r="289" ht="15.8" customHeight="1"/>
+    <row r="290" ht="15.8" customHeight="1"/>
+    <row r="291" ht="15.8" customHeight="1"/>
+    <row r="292" ht="15.8" customHeight="1"/>
+    <row r="293" ht="15.8" customHeight="1"/>
+    <row r="294" ht="15.8" customHeight="1"/>
+    <row r="295" ht="15.8" customHeight="1"/>
+    <row r="296" ht="15.8" customHeight="1"/>
+    <row r="297" ht="15.8" customHeight="1"/>
+    <row r="298" ht="15.8" customHeight="1"/>
+    <row r="299" ht="15.8" customHeight="1"/>
+    <row r="300" ht="15.8" customHeight="1"/>
+    <row r="301" ht="15.8" customHeight="1"/>
+    <row r="302" ht="15.8" customHeight="1"/>
+    <row r="303" ht="15.8" customHeight="1"/>
+    <row r="304" ht="15.8" customHeight="1"/>
+    <row r="305" ht="15.8" customHeight="1"/>
+    <row r="306" ht="15.8" customHeight="1"/>
+    <row r="307" ht="15.8" customHeight="1"/>
+    <row r="308" ht="15.8" customHeight="1"/>
+    <row r="309" ht="15.8" customHeight="1"/>
+    <row r="310" ht="15.8" customHeight="1"/>
+    <row r="311" ht="15.8" customHeight="1"/>
+    <row r="312" ht="15.8" customHeight="1"/>
+    <row r="313" ht="15.8" customHeight="1"/>
+    <row r="314" ht="15.8" customHeight="1"/>
+    <row r="315" ht="15.8" customHeight="1"/>
+    <row r="316" ht="15.8" customHeight="1"/>
+    <row r="317" ht="15.8" customHeight="1"/>
+    <row r="318" ht="15.8" customHeight="1"/>
+    <row r="319" ht="15.8" customHeight="1"/>
+    <row r="320" ht="15.8" customHeight="1"/>
+    <row r="321" ht="15.8" customHeight="1"/>
+    <row r="322" ht="15.8" customHeight="1"/>
+    <row r="323" ht="15.8" customHeight="1"/>
+    <row r="324" ht="15.8" customHeight="1"/>
+    <row r="325" ht="15.8" customHeight="1"/>
+    <row r="326" ht="15.8" customHeight="1"/>
+    <row r="327" ht="15.8" customHeight="1"/>
+    <row r="328" ht="15.8" customHeight="1"/>
+    <row r="329" ht="15.8" customHeight="1"/>
+    <row r="330" ht="15.8" customHeight="1"/>
+    <row r="331" ht="15.8" customHeight="1"/>
+    <row r="332" ht="15.8" customHeight="1"/>
+    <row r="333" ht="15.8" customHeight="1"/>
+    <row r="334" ht="15.8" customHeight="1"/>
+    <row r="335" ht="15.8" customHeight="1"/>
+    <row r="336" ht="15.8" customHeight="1"/>
+    <row r="337" ht="15.8" customHeight="1"/>
+    <row r="338" ht="15.8" customHeight="1"/>
+    <row r="339" ht="15.8" customHeight="1"/>
+    <row r="340" ht="15.8" customHeight="1"/>
+    <row r="341" ht="15.8" customHeight="1"/>
+    <row r="342" ht="15.8" customHeight="1"/>
+    <row r="343" ht="15.8" customHeight="1"/>
+    <row r="344" ht="15.8" customHeight="1"/>
+    <row r="345" ht="15.8" customHeight="1"/>
+    <row r="346" ht="15.8" customHeight="1"/>
+    <row r="347" ht="15.8" customHeight="1"/>
+    <row r="348" ht="15.8" customHeight="1"/>
+    <row r="349" ht="15.8" customHeight="1"/>
+    <row r="350" ht="15.8" customHeight="1"/>
+    <row r="351" ht="15.8" customHeight="1"/>
+    <row r="352" ht="15.8" customHeight="1"/>
+    <row r="353" ht="15.8" customHeight="1"/>
+    <row r="354" ht="15.8" customHeight="1"/>
+    <row r="355" ht="15.8" customHeight="1"/>
+    <row r="356" ht="15.8" customHeight="1"/>
+    <row r="357" ht="15.8" customHeight="1"/>
+    <row r="358" ht="15.8" customHeight="1"/>
+    <row r="359" ht="15.8" customHeight="1"/>
+    <row r="360" ht="15.8" customHeight="1"/>
+    <row r="361" ht="15.8" customHeight="1"/>
+    <row r="362" ht="15.8" customHeight="1"/>
+    <row r="363" ht="15.8" customHeight="1"/>
+    <row r="364" ht="15.8" customHeight="1"/>
+    <row r="365" ht="15.8" customHeight="1"/>
+    <row r="366" ht="15.8" customHeight="1"/>
+    <row r="367" ht="15.8" customHeight="1"/>
+    <row r="368" ht="15.8" customHeight="1"/>
+    <row r="369" ht="15.8" customHeight="1"/>
+    <row r="370" ht="15.8" customHeight="1"/>
+    <row r="371" ht="15.8" customHeight="1"/>
+    <row r="372" ht="15.8" customHeight="1"/>
+    <row r="373" ht="15.8" customHeight="1"/>
+    <row r="374" ht="15.8" customHeight="1"/>
+    <row r="375" ht="15.8" customHeight="1"/>
+    <row r="376" ht="15.8" customHeight="1"/>
+    <row r="377" ht="15.8" customHeight="1"/>
+    <row r="378" ht="15.8" customHeight="1"/>
+    <row r="379" ht="15.8" customHeight="1"/>
+    <row r="380" ht="15.8" customHeight="1"/>
+    <row r="381" ht="15.8" customHeight="1"/>
+    <row r="382" ht="15.8" customHeight="1"/>
+    <row r="383" ht="15.8" customHeight="1"/>
+    <row r="384" ht="15.8" customHeight="1"/>
+    <row r="385" ht="15.8" customHeight="1"/>
+    <row r="386" ht="15.8" customHeight="1"/>
+    <row r="387" ht="15.8" customHeight="1"/>
+    <row r="388" ht="15.8" customHeight="1"/>
+    <row r="389" ht="15.8" customHeight="1"/>
+    <row r="390" ht="15.8" customHeight="1"/>
+    <row r="391" ht="15.8" customHeight="1"/>
+    <row r="392" ht="15.8" customHeight="1"/>
+    <row r="393" ht="15.8" customHeight="1"/>
+    <row r="394" ht="15.8" customHeight="1"/>
+    <row r="395" ht="15.8" customHeight="1"/>
+    <row r="396" ht="15.8" customHeight="1"/>
+    <row r="397" ht="15.8" customHeight="1"/>
+    <row r="398" ht="15.8" customHeight="1"/>
+    <row r="399" ht="15.8" customHeight="1"/>
+    <row r="400" ht="15.8" customHeight="1"/>
+    <row r="401" ht="15.8" customHeight="1"/>
+    <row r="402" ht="15.8" customHeight="1"/>
+    <row r="403" ht="15.8" customHeight="1"/>
+    <row r="404" ht="15.8" customHeight="1"/>
+    <row r="405" ht="15.8" customHeight="1"/>
+    <row r="406" ht="15.8" customHeight="1"/>
+    <row r="407" ht="15.8" customHeight="1"/>
+    <row r="408" ht="15.8" customHeight="1"/>
+    <row r="409" ht="15.8" customHeight="1"/>
+    <row r="410" ht="15.8" customHeight="1"/>
+    <row r="411" ht="15.8" customHeight="1"/>
+    <row r="412" ht="15.8" customHeight="1"/>
+    <row r="413" ht="15.8" customHeight="1"/>
+    <row r="414" ht="15.8" customHeight="1"/>
+    <row r="415" ht="15.8" customHeight="1"/>
+    <row r="416" ht="15.8" customHeight="1"/>
+    <row r="417" ht="15.8" customHeight="1"/>
+    <row r="418" ht="15.8" customHeight="1"/>
+    <row r="419" ht="15.8" customHeight="1"/>
+    <row r="420" ht="15.8" customHeight="1"/>
+    <row r="421" ht="15.8" customHeight="1"/>
+    <row r="422" ht="15.8" customHeight="1"/>
+    <row r="423" ht="15.8" customHeight="1"/>
+    <row r="424" ht="15.8" customHeight="1"/>
+    <row r="425" ht="15.8" customHeight="1"/>
+    <row r="426" ht="15.8" customHeight="1"/>
+    <row r="427" ht="15.8" customHeight="1"/>
+    <row r="428" ht="15.8" customHeight="1"/>
+    <row r="429" ht="15.8" customHeight="1"/>
+    <row r="430" ht="15.8" customHeight="1"/>
+    <row r="431" ht="15.8" customHeight="1"/>
+    <row r="432" ht="15.8" customHeight="1"/>
+    <row r="433" ht="15.8" customHeight="1"/>
+    <row r="434" ht="15.8" customHeight="1"/>
+    <row r="435" ht="15.8" customHeight="1"/>
+    <row r="436" ht="15.8" customHeight="1"/>
+    <row r="437" ht="15.8" customHeight="1"/>
+    <row r="438" ht="15.8" customHeight="1"/>
+    <row r="439" ht="15.8" customHeight="1"/>
+    <row r="440" ht="15.8" customHeight="1"/>
+    <row r="441" ht="15.8" customHeight="1"/>
+    <row r="442" ht="15.8" customHeight="1"/>
+    <row r="443" ht="15.8" customHeight="1"/>
+    <row r="444" ht="15.8" customHeight="1"/>
+    <row r="445" ht="15.8" customHeight="1"/>
+    <row r="446" ht="15.8" customHeight="1"/>
+    <row r="447" ht="15.8" customHeight="1"/>
+    <row r="448" ht="15.8" customHeight="1"/>
+    <row r="449" ht="15.8" customHeight="1"/>
+    <row r="450" ht="15.8" customHeight="1"/>
+    <row r="451" ht="15.8" customHeight="1"/>
+    <row r="452" ht="15.8" customHeight="1"/>
+    <row r="453" ht="15.8" customHeight="1"/>
+    <row r="454" ht="15.8" customHeight="1"/>
+    <row r="455" ht="15.8" customHeight="1"/>
+    <row r="456" ht="15.8" customHeight="1"/>
+    <row r="457" ht="15.8" customHeight="1"/>
+    <row r="458" ht="15.8" customHeight="1"/>
+    <row r="459" ht="15.8" customHeight="1"/>
+    <row r="460" ht="15.8" customHeight="1"/>
+    <row r="461" ht="15.8" customHeight="1"/>
+    <row r="462" ht="15.8" customHeight="1"/>
+    <row r="463" ht="15.8" customHeight="1"/>
+    <row r="464" ht="15.8" customHeight="1"/>
+    <row r="465" ht="15.8" customHeight="1"/>
+    <row r="466" ht="15.8" customHeight="1"/>
+    <row r="467" ht="15.8" customHeight="1"/>
+    <row r="468" ht="15.8" customHeight="1"/>
+    <row r="469" ht="15.8" customHeight="1"/>
+    <row r="470" ht="15.8" customHeight="1"/>
+    <row r="471" ht="15.8" customHeight="1"/>
+    <row r="472" ht="15.8" customHeight="1"/>
+    <row r="473" ht="15.8" customHeight="1"/>
+    <row r="474" ht="15.8" customHeight="1"/>
+    <row r="475" ht="15.8" customHeight="1"/>
+    <row r="476" ht="15.8" customHeight="1"/>
+    <row r="477" ht="15.8" customHeight="1"/>
+    <row r="478" ht="15.8" customHeight="1"/>
+    <row r="479" ht="15.8" customHeight="1"/>
+    <row r="480" ht="15.8" customHeight="1"/>
+    <row r="481" ht="15.8" customHeight="1"/>
+    <row r="482" ht="15.8" customHeight="1"/>
+    <row r="483" ht="15.8" customHeight="1"/>
+    <row r="484" ht="15.8" customHeight="1"/>
+    <row r="485" ht="15.8" customHeight="1"/>
+    <row r="486" ht="15.8" customHeight="1"/>
+    <row r="487" ht="15.8" customHeight="1"/>
+    <row r="488" ht="15.8" customHeight="1"/>
+    <row r="489" ht="15.8" customHeight="1"/>
+    <row r="490" ht="15.8" customHeight="1"/>
+    <row r="491" ht="15.8" customHeight="1"/>
+    <row r="492" ht="15.8" customHeight="1"/>
+    <row r="493" ht="15.8" customHeight="1"/>
+    <row r="494" ht="15.8" customHeight="1"/>
+    <row r="495" ht="15.8" customHeight="1"/>
+    <row r="496" ht="15.8" customHeight="1"/>
+    <row r="497" ht="15.8" customHeight="1"/>
+    <row r="498" ht="15.8" customHeight="1"/>
+    <row r="499" ht="15.8" customHeight="1"/>
+    <row r="500" ht="15.8" customHeight="1"/>
+    <row r="501" ht="15.8" customHeight="1"/>
+    <row r="502" ht="15.8" customHeight="1"/>
+    <row r="503" ht="15.8" customHeight="1"/>
+    <row r="504" ht="15.8" customHeight="1"/>
+    <row r="505" ht="15.8" customHeight="1"/>
+    <row r="506" ht="15.8" customHeight="1"/>
+    <row r="507" ht="15.8" customHeight="1"/>
+    <row r="508" ht="15.8" customHeight="1"/>
+    <row r="509" ht="15.8" customHeight="1"/>
+    <row r="510" ht="15.8" customHeight="1"/>
+    <row r="511" ht="15.8" customHeight="1"/>
+    <row r="512" ht="15.8" customHeight="1"/>
+    <row r="513" ht="15.8" customHeight="1"/>
+    <row r="514" ht="15.8" customHeight="1"/>
+    <row r="515" ht="15.8" customHeight="1"/>
+    <row r="516" ht="15.8" customHeight="1"/>
+    <row r="517" ht="15.8" customHeight="1"/>
+    <row r="518" ht="15.8" customHeight="1"/>
+    <row r="519" ht="15.8" customHeight="1"/>
+    <row r="520" ht="15.8" customHeight="1"/>
+    <row r="521" ht="15.8" customHeight="1"/>
+    <row r="522" ht="15.8" customHeight="1"/>
+    <row r="523" ht="15.8" customHeight="1"/>
+    <row r="524" ht="15.8" customHeight="1"/>
+    <row r="525" ht="15.8" customHeight="1"/>
+    <row r="526" ht="15.8" customHeight="1"/>
+    <row r="527" ht="15.8" customHeight="1"/>
+    <row r="528" ht="15.8" customHeight="1"/>
+    <row r="529" ht="15.8" customHeight="1"/>
+    <row r="530" ht="15.8" customHeight="1"/>
+    <row r="531" ht="15.8" customHeight="1"/>
+    <row r="532" ht="15.8" customHeight="1"/>
+    <row r="533" ht="15.8" customHeight="1"/>
+    <row r="534" ht="15.8" customHeight="1"/>
+    <row r="535" ht="15.8" customHeight="1"/>
+    <row r="536" ht="15.8" customHeight="1"/>
+    <row r="537" ht="15.8" customHeight="1"/>
+    <row r="538" ht="15.8" customHeight="1"/>
+    <row r="539" ht="15.8" customHeight="1"/>
+    <row r="540" ht="15.8" customHeight="1"/>
+    <row r="541" ht="15.8" customHeight="1"/>
+    <row r="542" ht="15.8" customHeight="1"/>
+    <row r="543" ht="15.8" customHeight="1"/>
+    <row r="544" ht="15.8" customHeight="1"/>
+    <row r="545" ht="15.8" customHeight="1"/>
+    <row r="546" ht="15.8" customHeight="1"/>
+    <row r="547" ht="15.8" customHeight="1"/>
+    <row r="548" ht="15.8" customHeight="1"/>
+    <row r="549" ht="15.8" customHeight="1"/>
+    <row r="550" ht="15.8" customHeight="1"/>
+    <row r="551" ht="15.8" customHeight="1"/>
+    <row r="552" ht="15.8" customHeight="1"/>
+    <row r="553" ht="15.8" customHeight="1"/>
+    <row r="554" ht="15.8" customHeight="1"/>
+    <row r="555" ht="15.8" customHeight="1"/>
+    <row r="556" ht="15.8" customHeight="1"/>
+    <row r="557" ht="15.8" customHeight="1"/>
+    <row r="558" ht="15.8" customHeight="1"/>
+    <row r="559" ht="15.8" customHeight="1"/>
+    <row r="560" ht="15.8" customHeight="1"/>
+    <row r="561" ht="15.8" customHeight="1"/>
+    <row r="562" ht="15.8" customHeight="1"/>
+    <row r="563" ht="15.8" customHeight="1"/>
+    <row r="564" ht="15.8" customHeight="1"/>
+    <row r="565" ht="15.8" customHeight="1"/>
+    <row r="566" ht="15.8" customHeight="1"/>
+    <row r="567" ht="15.8" customHeight="1"/>
+    <row r="568" ht="15.8" customHeight="1"/>
+    <row r="569" ht="15.8" customHeight="1"/>
+    <row r="570" ht="15.8" customHeight="1"/>
+    <row r="571" ht="15.8" customHeight="1"/>
+    <row r="572" ht="15.8" customHeight="1"/>
+    <row r="573" ht="15.8" customHeight="1"/>
+    <row r="574" ht="15.8" customHeight="1"/>
+    <row r="575" ht="15.8" customHeight="1"/>
+    <row r="576" ht="15.8" customHeight="1"/>
+    <row r="577" ht="15.8" customHeight="1"/>
+    <row r="578" ht="15.8" customHeight="1"/>
+    <row r="579" ht="15.8" customHeight="1"/>
+    <row r="580" ht="15.8" customHeight="1"/>
+    <row r="581" ht="15.8" customHeight="1"/>
+    <row r="582" ht="15.8" customHeight="1"/>
+    <row r="583" ht="15.8" customHeight="1"/>
+    <row r="584" ht="15.8" customHeight="1"/>
+    <row r="585" ht="15.8" customHeight="1"/>
+    <row r="586" ht="15.8" customHeight="1"/>
+    <row r="587" ht="15.8" customHeight="1"/>
+    <row r="588" ht="15.8" customHeight="1"/>
+    <row r="589" ht="15.8" customHeight="1"/>
+    <row r="590" ht="15.8" customHeight="1"/>
+    <row r="591" ht="15.8" customHeight="1"/>
+    <row r="592" ht="15.8" customHeight="1"/>
+    <row r="593" ht="15.8" customHeight="1"/>
+    <row r="594" ht="15.8" customHeight="1"/>
+    <row r="595" ht="15.8" customHeight="1"/>
+    <row r="596" ht="15.8" customHeight="1"/>
+    <row r="597" ht="15.8" customHeight="1"/>
+    <row r="598" ht="15.8" customHeight="1"/>
+    <row r="599" ht="15.8" customHeight="1"/>
+    <row r="600" ht="15.8" customHeight="1"/>
+    <row r="601" ht="15.8" customHeight="1"/>
+    <row r="602" ht="15.8" customHeight="1"/>
+    <row r="603" ht="15.8" customHeight="1"/>
+    <row r="604" ht="15.8" customHeight="1"/>
+    <row r="605" ht="15.8" customHeight="1"/>
+    <row r="606" ht="15.8" customHeight="1"/>
+    <row r="607" ht="15.8" customHeight="1"/>
+    <row r="608" ht="15.8" customHeight="1"/>
+    <row r="609" ht="15.8" customHeight="1"/>
+    <row r="610" ht="15.8" customHeight="1"/>
+    <row r="611" ht="15.8" customHeight="1"/>
+    <row r="612" ht="15.8" customHeight="1"/>
+    <row r="613" ht="15.8" customHeight="1"/>
+    <row r="614" ht="15.8" customHeight="1"/>
+    <row r="615" ht="15.8" customHeight="1"/>
+    <row r="616" ht="15.8" customHeight="1"/>
+    <row r="617" ht="15.8" customHeight="1"/>
+    <row r="618" ht="15.8" customHeight="1"/>
+    <row r="619" ht="15.8" customHeight="1"/>
+    <row r="620" ht="15.8" customHeight="1"/>
+    <row r="621" ht="15.8" customHeight="1"/>
+    <row r="622" ht="15.8" customHeight="1"/>
+    <row r="623" ht="15.8" customHeight="1"/>
+    <row r="624" ht="15.8" customHeight="1"/>
+    <row r="625" ht="15.8" customHeight="1"/>
+    <row r="626" ht="15.8" customHeight="1"/>
+    <row r="627" ht="15.8" customHeight="1"/>
+    <row r="628" ht="15.8" customHeight="1"/>
+    <row r="629" ht="15.8" customHeight="1"/>
+    <row r="630" ht="15.8" customHeight="1"/>
+    <row r="631" ht="15.8" customHeight="1"/>
+    <row r="632" ht="15.8" customHeight="1"/>
+    <row r="633" ht="15.8" customHeight="1"/>
+    <row r="634" ht="15.8" customHeight="1"/>
+    <row r="635" ht="15.8" customHeight="1"/>
+    <row r="636" ht="15.8" customHeight="1"/>
+    <row r="637" ht="15.8" customHeight="1"/>
+    <row r="638" ht="15.8" customHeight="1"/>
+    <row r="639" ht="15.8" customHeight="1"/>
+    <row r="640" ht="15.8" customHeight="1"/>
+    <row r="641" ht="15.8" customHeight="1"/>
+    <row r="642" ht="15.8" customHeight="1"/>
+    <row r="643" ht="15.8" customHeight="1"/>
+    <row r="644" ht="15.8" customHeight="1"/>
+    <row r="645" ht="15.8" customHeight="1"/>
+    <row r="646" ht="15.8" customHeight="1"/>
+    <row r="647" ht="15.8" customHeight="1"/>
+    <row r="648" ht="15.8" customHeight="1"/>
+    <row r="649" ht="15.8" customHeight="1"/>
+    <row r="650" ht="15.8" customHeight="1"/>
+    <row r="651" ht="15.8" customHeight="1"/>
+    <row r="652" ht="15.8" customHeight="1"/>
+    <row r="653" ht="15.8" customHeight="1"/>
+    <row r="654" ht="15.8" customHeight="1"/>
+    <row r="655" ht="15.8" customHeight="1"/>
+    <row r="656" ht="15.8" customHeight="1"/>
+    <row r="657" ht="15.8" customHeight="1"/>
+    <row r="658" ht="15.8" customHeight="1"/>
+    <row r="659" ht="15.8" customHeight="1"/>
+    <row r="660" ht="15.8" customHeight="1"/>
+    <row r="661" ht="15.8" customHeight="1"/>
+    <row r="662" ht="15.8" customHeight="1"/>
+    <row r="663" ht="15.8" customHeight="1"/>
+    <row r="664" ht="15.8" customHeight="1"/>
+    <row r="665" ht="15.8" customHeight="1"/>
+    <row r="666" ht="15.8" customHeight="1"/>
+    <row r="667" ht="15.8" customHeight="1"/>
+    <row r="668" ht="15.8" customHeight="1"/>
+    <row r="669" ht="15.8" customHeight="1"/>
+    <row r="670" ht="15.8" customHeight="1"/>
+    <row r="671" ht="15.8" customHeight="1"/>
+    <row r="672" ht="15.8" customHeight="1"/>
+    <row r="673" ht="15.8" customHeight="1"/>
+    <row r="674" ht="15.8" customHeight="1"/>
+    <row r="675" ht="15.8" customHeight="1"/>
+    <row r="676" ht="15.8" customHeight="1"/>
+    <row r="677" ht="15.8" customHeight="1"/>
+    <row r="678" ht="15.8" customHeight="1"/>
+    <row r="679" ht="15.8" customHeight="1"/>
+    <row r="680" ht="15.8" customHeight="1"/>
+    <row r="681" ht="15.8" customHeight="1"/>
+    <row r="682" ht="15.8" customHeight="1"/>
+    <row r="683" ht="15.8" customHeight="1"/>
+    <row r="684" ht="15.8" customHeight="1"/>
+    <row r="685" ht="15.8" customHeight="1"/>
+    <row r="686" ht="15.8" customHeight="1"/>
+    <row r="687" ht="15.8" customHeight="1"/>
+    <row r="688" ht="15.8" customHeight="1"/>
+    <row r="689" ht="15.8" customHeight="1"/>
+    <row r="690" ht="15.8" customHeight="1"/>
+    <row r="691" ht="15.8" customHeight="1"/>
+    <row r="692" ht="15.8" customHeight="1"/>
+    <row r="693" ht="15.8" customHeight="1"/>
+    <row r="694" ht="15.8" customHeight="1"/>
+    <row r="695" ht="15.8" customHeight="1"/>
+    <row r="696" ht="15.8" customHeight="1"/>
+    <row r="697" ht="15.8" customHeight="1"/>
+    <row r="698" ht="15.8" customHeight="1"/>
+    <row r="699" ht="15.8" customHeight="1"/>
+    <row r="700" ht="15.8" customHeight="1"/>
+    <row r="701" ht="15.8" customHeight="1"/>
+    <row r="702" ht="15.8" customHeight="1"/>
+    <row r="703" ht="15.8" customHeight="1"/>
+    <row r="704" ht="15.8" customHeight="1"/>
+    <row r="705" ht="15.8" customHeight="1"/>
+    <row r="706" ht="15.8" customHeight="1"/>
+    <row r="707" ht="15.8" customHeight="1"/>
+    <row r="708" ht="15.8" customHeight="1"/>
+    <row r="709" ht="15.8" customHeight="1"/>
+    <row r="710" ht="15.8" customHeight="1"/>
+    <row r="711" ht="15.8" customHeight="1"/>
+    <row r="712" ht="15.8" customHeight="1"/>
+    <row r="713" ht="15.8" customHeight="1"/>
+    <row r="714" ht="15.8" customHeight="1"/>
+    <row r="715" ht="15.8" customHeight="1"/>
+    <row r="716" ht="15.8" customHeight="1"/>
+    <row r="717" ht="15.8" customHeight="1"/>
+    <row r="718" ht="15.8" customHeight="1"/>
+    <row r="719" ht="15.8" customHeight="1"/>
+    <row r="720" ht="15.8" customHeight="1"/>
+    <row r="721" ht="15.8" customHeight="1"/>
+    <row r="722" ht="15.8" customHeight="1"/>
+    <row r="723" ht="15.8" customHeight="1"/>
+    <row r="724" ht="15.8" customHeight="1"/>
+    <row r="725" ht="15.8" customHeight="1"/>
+    <row r="726" ht="15.8" customHeight="1"/>
+    <row r="727" ht="15.8" customHeight="1"/>
+    <row r="728" ht="15.8" customHeight="1"/>
+    <row r="729" ht="15.8" customHeight="1"/>
+    <row r="730" ht="15.8" customHeight="1"/>
+    <row r="731" ht="15.8" customHeight="1"/>
+    <row r="732" ht="15.8" customHeight="1"/>
+    <row r="733" ht="15.8" customHeight="1"/>
+    <row r="734" ht="15.8" customHeight="1"/>
+    <row r="735" ht="15.8" customHeight="1"/>
+    <row r="736" ht="15.8" customHeight="1"/>
+    <row r="737" ht="15.8" customHeight="1"/>
+    <row r="738" ht="15.8" customHeight="1"/>
+    <row r="739" ht="15.8" customHeight="1"/>
+    <row r="740" ht="15.8" customHeight="1"/>
+    <row r="741" ht="15.8" customHeight="1"/>
+    <row r="742" ht="15.8" customHeight="1"/>
+    <row r="743" ht="15.8" customHeight="1"/>
+    <row r="744" ht="15.8" customHeight="1"/>
+    <row r="745" ht="15.8" customHeight="1"/>
+    <row r="746" ht="15.8" customHeight="1"/>
+    <row r="747" ht="15.8" customHeight="1"/>
+    <row r="748" ht="15.8" customHeight="1"/>
+    <row r="749" ht="15.8" customHeight="1"/>
+    <row r="750" ht="15.8" customHeight="1"/>
+    <row r="751" ht="15.8" customHeight="1"/>
+    <row r="752" ht="15.8" customHeight="1"/>
+    <row r="753" ht="15.8" customHeight="1"/>
+    <row r="754" ht="15.8" customHeight="1"/>
+    <row r="755" ht="15.8" customHeight="1"/>
+    <row r="756" ht="15.8" customHeight="1"/>
+    <row r="757" ht="15.8" customHeight="1"/>
+    <row r="758" ht="15.8" customHeight="1"/>
+    <row r="759" ht="15.8" customHeight="1"/>
+    <row r="760" ht="15.8" customHeight="1"/>
+    <row r="761" ht="15.8" customHeight="1"/>
+    <row r="762" ht="15.8" customHeight="1"/>
+    <row r="763" ht="15.8" customHeight="1"/>
+    <row r="764" ht="15.8" customHeight="1"/>
+    <row r="765" ht="15.8" customHeight="1"/>
+    <row r="766" ht="15.8" customHeight="1"/>
+    <row r="767" ht="15.8" customHeight="1"/>
+    <row r="768" ht="15.8" customHeight="1"/>
+    <row r="769" ht="15.8" customHeight="1"/>
+    <row r="770" ht="15.8" customHeight="1"/>
+    <row r="771" ht="15.8" customHeight="1"/>
+    <row r="772" ht="15.8" customHeight="1"/>
+    <row r="773" ht="15.8" customHeight="1"/>
+    <row r="774" ht="15.8" customHeight="1"/>
+    <row r="775" ht="15.8" customHeight="1"/>
+    <row r="776" ht="15.8" customHeight="1"/>
+    <row r="777" ht="15.8" customHeight="1"/>
+    <row r="778" ht="15.8" customHeight="1"/>
+    <row r="779" ht="15.8" customHeight="1"/>
+    <row r="780" ht="15.8" customHeight="1"/>
+    <row r="781" ht="15.8" customHeight="1"/>
+    <row r="782" ht="15.8" customHeight="1"/>
+    <row r="783" ht="15.8" customHeight="1"/>
+    <row r="784" ht="15.8" customHeight="1"/>
+    <row r="785" ht="15.8" customHeight="1"/>
+    <row r="786" ht="15.8" customHeight="1"/>
+    <row r="787" ht="15.8" customHeight="1"/>
+    <row r="788" ht="15.8" customHeight="1"/>
+    <row r="789" ht="15.8" customHeight="1"/>
+    <row r="790" ht="15.8" customHeight="1"/>
+    <row r="791" ht="15.8" customHeight="1"/>
+    <row r="792" ht="15.8" customHeight="1"/>
+    <row r="793" ht="15.8" customHeight="1"/>
+    <row r="794" ht="15.8" customHeight="1"/>
+    <row r="795" ht="15.8" customHeight="1"/>
+    <row r="796" ht="15.8" customHeight="1"/>
+    <row r="797" ht="15.8" customHeight="1"/>
+    <row r="798" ht="15.8" customHeight="1"/>
+    <row r="799" ht="15.8" customHeight="1"/>
+    <row r="800" ht="15.8" customHeight="1"/>
+    <row r="801" ht="15.8" customHeight="1"/>
+    <row r="802" ht="15.8" customHeight="1"/>
+    <row r="803" ht="15.8" customHeight="1"/>
+    <row r="804" ht="15.8" customHeight="1"/>
+    <row r="805" ht="15.8" customHeight="1"/>
+    <row r="806" ht="15.8" customHeight="1"/>
+    <row r="807" ht="15.8" customHeight="1"/>
+    <row r="808" ht="15.8" customHeight="1"/>
+    <row r="809" ht="15.8" customHeight="1"/>
+    <row r="810" ht="15.8" customHeight="1"/>
+    <row r="811" ht="15.8" customHeight="1"/>
+    <row r="812" ht="15.8" customHeight="1"/>
+    <row r="813" ht="15.8" customHeight="1"/>
+    <row r="814" ht="15.8" customHeight="1"/>
+    <row r="815" ht="15.8" customHeight="1"/>
+    <row r="816" ht="15.8" customHeight="1"/>
+    <row r="817" ht="15.8" customHeight="1"/>
+    <row r="818" ht="15.8" customHeight="1"/>
+    <row r="819" ht="15.8" customHeight="1"/>
+    <row r="820" ht="15.8" customHeight="1"/>
+    <row r="821" ht="15.8" customHeight="1"/>
+    <row r="822" ht="15.8" customHeight="1"/>
+    <row r="823" ht="15.8" customHeight="1"/>
+    <row r="824" ht="15.8" customHeight="1"/>
+    <row r="825" ht="15.8" customHeight="1"/>
+    <row r="826" ht="15.8" customHeight="1"/>
+    <row r="827" ht="15.8" customHeight="1"/>
+    <row r="828" ht="15.8" customHeight="1"/>
+    <row r="829" ht="15.8" customHeight="1"/>
+    <row r="830" ht="15.8" customHeight="1"/>
+    <row r="831" ht="15.8" customHeight="1"/>
+    <row r="832" ht="15.8" customHeight="1"/>
+    <row r="833" ht="15.8" customHeight="1"/>
+    <row r="834" ht="15.8" customHeight="1"/>
+    <row r="835" ht="15.8" customHeight="1"/>
+    <row r="836" ht="15.8" customHeight="1"/>
+    <row r="837" ht="15.8" customHeight="1"/>
+    <row r="838" ht="15.8" customHeight="1"/>
+    <row r="839" ht="15.8" customHeight="1"/>
+    <row r="840" ht="15.8" customHeight="1"/>
+    <row r="841" ht="15.8" customHeight="1"/>
+    <row r="842" ht="15.8" customHeight="1"/>
+    <row r="843" ht="15.8" customHeight="1"/>
+    <row r="844" ht="15.8" customHeight="1"/>
+    <row r="845" ht="15.8" customHeight="1"/>
+    <row r="846" ht="15.8" customHeight="1"/>
+    <row r="847" ht="15.8" customHeight="1"/>
+    <row r="848" ht="15.8" customHeight="1"/>
+    <row r="849" ht="15.8" customHeight="1"/>
+    <row r="850" ht="15.8" customHeight="1"/>
+    <row r="851" ht="15.8" customHeight="1"/>
+    <row r="852" ht="15.8" customHeight="1"/>
+    <row r="853" ht="15.8" customHeight="1"/>
+    <row r="854" ht="15.8" customHeight="1"/>
+    <row r="855" ht="15.8" customHeight="1"/>
+    <row r="856" ht="15.8" customHeight="1"/>
+    <row r="857" ht="15.8" customHeight="1"/>
+    <row r="858" ht="15.8" customHeight="1"/>
+    <row r="859" ht="15.8" customHeight="1"/>
+    <row r="860" ht="15.8" customHeight="1"/>
+    <row r="861" ht="15.8" customHeight="1"/>
+    <row r="862" ht="15.8" customHeight="1"/>
+    <row r="863" ht="15.8" customHeight="1"/>
+    <row r="864" ht="15.8" customHeight="1"/>
+    <row r="865" ht="15.8" customHeight="1"/>
+    <row r="866" ht="15.8" customHeight="1"/>
+    <row r="867" ht="15.8" customHeight="1"/>
+    <row r="868" ht="15.8" customHeight="1"/>
+    <row r="869" ht="15.8" customHeight="1"/>
+    <row r="870" ht="15.8" customHeight="1"/>
+    <row r="871" ht="15.8" customHeight="1"/>
+    <row r="872" ht="15.8" customHeight="1"/>
+    <row r="873" ht="15.8" customHeight="1"/>
+    <row r="874" ht="15.8" customHeight="1"/>
+    <row r="875" ht="15.8" customHeight="1"/>
+    <row r="876" ht="15.8" customHeight="1"/>
+    <row r="877" ht="15.8" customHeight="1"/>
+    <row r="878" ht="15.8" customHeight="1"/>
+    <row r="879" ht="15.8" customHeight="1"/>
+    <row r="880" ht="15.8" customHeight="1"/>
+    <row r="881" ht="15.8" customHeight="1"/>
+    <row r="882" ht="15.8" customHeight="1"/>
+    <row r="883" ht="15.8" customHeight="1"/>
+    <row r="884" ht="15.8" customHeight="1"/>
+    <row r="885" ht="15.8" customHeight="1"/>
+    <row r="886" ht="15.8" customHeight="1"/>
+    <row r="887" ht="15.8" customHeight="1"/>
+    <row r="888" ht="15.8" customHeight="1"/>
+    <row r="889" ht="15.8" customHeight="1"/>
+    <row r="890" ht="15.8" customHeight="1"/>
+    <row r="891" ht="15.8" customHeight="1"/>
+    <row r="892" ht="15.8" customHeight="1"/>
+    <row r="893" ht="15.8" customHeight="1"/>
+    <row r="894" ht="15.8" customHeight="1"/>
+    <row r="895" ht="15.8" customHeight="1"/>
+    <row r="896" ht="15.8" customHeight="1"/>
+    <row r="897" ht="15.8" customHeight="1"/>
+    <row r="898" ht="15.8" customHeight="1"/>
+    <row r="899" ht="15.8" customHeight="1"/>
+    <row r="900" ht="15.8" customHeight="1"/>
+    <row r="901" ht="15.8" customHeight="1"/>
+    <row r="902" ht="15.8" customHeight="1"/>
+    <row r="903" ht="15.8" customHeight="1"/>
+    <row r="904" ht="15.8" customHeight="1"/>
+    <row r="905" ht="15.8" customHeight="1"/>
+    <row r="906" ht="15.8" customHeight="1"/>
+    <row r="907" ht="15.8" customHeight="1"/>
+    <row r="908" ht="15.8" customHeight="1"/>
+    <row r="909" ht="15.8" customHeight="1"/>
+    <row r="910" ht="15.8" customHeight="1"/>
+    <row r="911" ht="15.8" customHeight="1"/>
+    <row r="912" ht="15.8" customHeight="1"/>
+    <row r="913" ht="15.8" customHeight="1"/>
+    <row r="914" ht="15.8" customHeight="1"/>
+    <row r="915" ht="15.8" customHeight="1"/>
+    <row r="916" ht="15.8" customHeight="1"/>
+    <row r="917" ht="15.8" customHeight="1"/>
+    <row r="918" ht="15.8" customHeight="1"/>
+    <row r="919" ht="15.8" customHeight="1"/>
+    <row r="920" ht="15.8" customHeight="1"/>
+    <row r="921" ht="15.8" customHeight="1"/>
+    <row r="922" ht="15.8" customHeight="1"/>
+    <row r="923" ht="15.8" customHeight="1"/>
+    <row r="924" ht="15.8" customHeight="1"/>
+    <row r="925" ht="15.8" customHeight="1"/>
+    <row r="926" ht="15.8" customHeight="1"/>
+    <row r="927" ht="15.8" customHeight="1"/>
+    <row r="928" ht="15.8" customHeight="1"/>
+    <row r="929" ht="15.8" customHeight="1"/>
+    <row r="930" ht="15.8" customHeight="1"/>
+    <row r="931" ht="15.8" customHeight="1"/>
+    <row r="932" ht="15.8" customHeight="1"/>
+    <row r="933" ht="15.8" customHeight="1"/>
+    <row r="934" ht="15.8" customHeight="1"/>
+    <row r="935" ht="15.8" customHeight="1"/>
+    <row r="936" ht="15.8" customHeight="1"/>
+    <row r="937" ht="15.8" customHeight="1"/>
+    <row r="938" ht="15.8" customHeight="1"/>
+    <row r="939" ht="15.8" customHeight="1"/>
+    <row r="940" ht="15.8" customHeight="1"/>
+    <row r="941" ht="15.8" customHeight="1"/>
+    <row r="942" ht="15.8" customHeight="1"/>
+    <row r="943" ht="15.8" customHeight="1"/>
+    <row r="944" ht="15.8" customHeight="1"/>
+    <row r="945" ht="15.8" customHeight="1"/>
+    <row r="946" ht="15.8" customHeight="1"/>
+    <row r="947" ht="15.8" customHeight="1"/>
+    <row r="948" ht="15.8" customHeight="1"/>
+    <row r="949" ht="15.8" customHeight="1"/>
+    <row r="950" ht="15.8" customHeight="1"/>
+    <row r="951" ht="15.8" customHeight="1"/>
+    <row r="952" ht="15.8" customHeight="1"/>
+    <row r="953" ht="15.8" customHeight="1"/>
+    <row r="954" ht="15.8" customHeight="1"/>
+    <row r="955" ht="15.8" customHeight="1"/>
+    <row r="956" ht="15.8" customHeight="1"/>
+    <row r="957" ht="15.8" customHeight="1"/>
+    <row r="958" ht="15.8" customHeight="1"/>
+    <row r="959" ht="15.8" customHeight="1"/>
+    <row r="960" ht="15.8" customHeight="1"/>
+    <row r="961" ht="15.8" customHeight="1"/>
+    <row r="962" ht="15.8" customHeight="1"/>
+    <row r="963" ht="15.8" customHeight="1"/>
+    <row r="964" ht="15.8" customHeight="1"/>
+    <row r="965" ht="15.8" customHeight="1"/>
+    <row r="966" ht="15.8" customHeight="1"/>
+    <row r="967" ht="15.8" customHeight="1"/>
+    <row r="968" ht="15.8" customHeight="1"/>
+    <row r="969" ht="15.8" customHeight="1"/>
+    <row r="970" ht="15.8" customHeight="1"/>
+    <row r="971" ht="15.8" customHeight="1"/>
+    <row r="972" ht="15.8" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="I2:I25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I25">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O25">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O25">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Can't be run"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O25">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I25">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Normal,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O2:O25">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Passed,Can't be run,Failed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="L3"/>
-    <hyperlink r:id="rId3" ref="L4"/>
-    <hyperlink r:id="rId4" ref="L5"/>
-    <hyperlink r:id="rId5" ref="L6"/>
-    <hyperlink r:id="rId6" ref="L7"/>
-    <hyperlink r:id="rId7" ref="L8"/>
-    <hyperlink r:id="rId8" ref="L9"/>
-    <hyperlink r:id="rId9" ref="L10"/>
-    <hyperlink r:id="rId10" ref="L11"/>
-    <hyperlink r:id="rId11" ref="L12"/>
-    <hyperlink r:id="rId12" ref="L14"/>
-    <hyperlink r:id="rId13" ref="L15"/>
-    <hyperlink r:id="rId14" ref="L16"/>
-    <hyperlink r:id="rId15" ref="L17"/>
-    <hyperlink r:id="rId16" ref="L18"/>
-    <hyperlink r:id="rId17" ref="L19"/>
-    <hyperlink r:id="rId18" ref="L20"/>
-    <hyperlink r:id="rId19" ref="L21"/>
-    <hyperlink r:id="rId20" ref="L24"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <legacyDrawing r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="14.95" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="5" width="25.71"/>
-    <col customWidth="1" min="6" max="6" width="8.71"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.65">
       <c r="A1" s="26"/>
       <c r="B1" s="26" t="s">
         <v>192</v>
@@ -9359,7 +9503,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.65">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -9370,7 +9514,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" ht="45.75" customHeight="1">
+    <row r="3" spans="1:5" ht="45.7" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>196</v>
       </c>
@@ -9381,7 +9525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" ht="102.75" customHeight="1">
+    <row r="4" spans="1:5" ht="102.75" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
@@ -9392,7 +9536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" ht="48.0" customHeight="1">
+    <row r="5" spans="1:5" ht="48.1" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>201</v>
       </c>
@@ -9403,7 +9547,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" ht="48.0" customHeight="1">
+    <row r="6" spans="1:5" ht="48.1" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>204</v>
       </c>
@@ -9414,7 +9558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="48.0" customHeight="1">
+    <row r="7" spans="1:5" ht="48.1" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>205</v>
       </c>
@@ -9425,7 +9569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" ht="48.0" customHeight="1">
+    <row r="8" spans="1:5" ht="48.1" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>206</v>
       </c>
@@ -9436,7 +9580,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" ht="48.0" customHeight="1">
+    <row r="9" spans="1:5" ht="48.1" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>208</v>
       </c>
@@ -9447,18 +9591,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" ht="48.0" customHeight="1">
+    <row r="10" spans="1:5" ht="48.1" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>210</v>
       </c>
       <c r="B10" s="28">
-        <v>44732.0</v>
+        <v>44732</v>
       </c>
       <c r="C10" s="28">
-        <v>44733.0</v>
-      </c>
-    </row>
-    <row r="11" ht="48.0" customHeight="1">
+        <v>44733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48.1" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>211</v>
       </c>
@@ -9469,7 +9613,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" ht="48.0" customHeight="1">
+    <row r="12" spans="1:5" ht="48.1" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>213</v>
       </c>
@@ -9480,7 +9624,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" ht="48.0" customHeight="1">
+    <row r="13" spans="1:5" ht="48.1" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
@@ -9491,7 +9635,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" ht="48.0" customHeight="1">
+    <row r="14" spans="1:5" ht="48.1" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>13</v>
       </c>
@@ -9502,2071 +9646,2071 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" ht="115.5" customHeight="1">
+    <row r="15" spans="1:5" ht="115.5" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="14.3">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:5" ht="14.3">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:5" ht="14.3">
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:5" ht="14.3">
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:5" ht="14.3">
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="2:5" ht="15.8" customHeight="1">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="2:5" ht="15.8" customHeight="1">
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="2:5" ht="15.8" customHeight="1">
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="2:5" ht="15.8" customHeight="1">
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="2:5" ht="15.8" customHeight="1">
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="2:5" ht="15.8" customHeight="1">
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="2:5" ht="15.8" customHeight="1">
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="2:5" ht="15.8" customHeight="1">
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="2:5" ht="15.8" customHeight="1">
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="2:5" ht="15.8" customHeight="1">
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="2:5" ht="15.8" customHeight="1">
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="2:5" ht="15.8" customHeight="1">
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="2:5" ht="15.8" customHeight="1">
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="2:5" ht="15.8" customHeight="1">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="2:5" ht="15.8" customHeight="1">
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="2:5" ht="15.8" customHeight="1">
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="2:5" ht="15.8" customHeight="1">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="2:5" ht="15.8" customHeight="1">
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="2:5" ht="15.8" customHeight="1">
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="2:5" ht="15.8" customHeight="1">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="2:5" ht="15.8" customHeight="1">
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="2:5" ht="15.8" customHeight="1">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="2:5" ht="15.8" customHeight="1">
       <c r="B43" s="31"/>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="2:5" ht="15.8" customHeight="1">
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="2:5" ht="15.8" customHeight="1">
       <c r="B45" s="31"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="2:5" ht="15.8" customHeight="1">
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="2:5" ht="15.8" customHeight="1">
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="2:5" ht="15.8" customHeight="1">
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="2:5" ht="15.8" customHeight="1">
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="2:5" ht="15.8" customHeight="1">
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="2:5" ht="15.8" customHeight="1">
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="2:5" ht="15.8" customHeight="1">
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="2:5" ht="15.8" customHeight="1">
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="2:5" ht="15.8" customHeight="1">
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="2:5" ht="15.8" customHeight="1">
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="2:5" ht="15.8" customHeight="1">
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="2:5" ht="15.8" customHeight="1">
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="2:5" ht="15.8" customHeight="1">
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="2:5" ht="15.8" customHeight="1">
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="2:5" ht="15.8" customHeight="1">
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="2:5" ht="15.8" customHeight="1">
       <c r="B61" s="31"/>
       <c r="C61" s="31"/>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="2:5" ht="15.8" customHeight="1">
       <c r="B62" s="31"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="2:5" ht="15.8" customHeight="1">
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="2:5" ht="15.8" customHeight="1">
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="2:5" ht="15.8" customHeight="1">
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="2:5" ht="15.8" customHeight="1">
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="2:5" ht="15.8" customHeight="1">
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
       <c r="D67" s="31"/>
       <c r="E67" s="31"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="2:5" ht="15.8" customHeight="1">
       <c r="B68" s="31"/>
       <c r="C68" s="31"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="2:5" ht="15.8" customHeight="1">
       <c r="B69" s="31"/>
       <c r="C69" s="31"/>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="2:5" ht="15.8" customHeight="1">
       <c r="B70" s="31"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="2:5" ht="15.8" customHeight="1">
       <c r="B71" s="31"/>
       <c r="C71" s="31"/>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="2:5" ht="15.8" customHeight="1">
       <c r="B72" s="31"/>
       <c r="C72" s="31"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="2:5" ht="15.8" customHeight="1">
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="2:5" ht="15.8" customHeight="1">
       <c r="B74" s="31"/>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
       <c r="E74" s="31"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="2:5" ht="15.8" customHeight="1">
       <c r="B75" s="31"/>
       <c r="C75" s="31"/>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="2:5" ht="15.8" customHeight="1">
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="2:5" ht="15.8" customHeight="1">
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="2:5" ht="15.8" customHeight="1">
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="2:5" ht="15.8" customHeight="1">
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="2:5" ht="15.8" customHeight="1">
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="2:5" ht="15.8" customHeight="1">
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
       <c r="D81" s="31"/>
       <c r="E81" s="31"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="2:5" ht="15.8" customHeight="1">
       <c r="B82" s="31"/>
       <c r="C82" s="31"/>
       <c r="D82" s="31"/>
       <c r="E82" s="31"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="2:5" ht="15.8" customHeight="1">
       <c r="B83" s="31"/>
       <c r="C83" s="31"/>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="2:5" ht="15.8" customHeight="1">
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="2:5" ht="15.8" customHeight="1">
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
       <c r="D85" s="31"/>
       <c r="E85" s="31"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="2:5" ht="15.8" customHeight="1">
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
       <c r="D86" s="31"/>
       <c r="E86" s="31"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="2:5" ht="15.8" customHeight="1">
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="2:5" ht="15.8" customHeight="1">
       <c r="B88" s="31"/>
       <c r="C88" s="31"/>
       <c r="D88" s="31"/>
       <c r="E88" s="31"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="2:5" ht="15.8" customHeight="1">
       <c r="B89" s="31"/>
       <c r="C89" s="31"/>
       <c r="D89" s="31"/>
       <c r="E89" s="31"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="2:5" ht="15.8" customHeight="1">
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="2:5" ht="15.8" customHeight="1">
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
       <c r="D91" s="31"/>
       <c r="E91" s="31"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="2:5" ht="15.8" customHeight="1">
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
       <c r="D92" s="31"/>
       <c r="E92" s="31"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="2:5" ht="15.8" customHeight="1">
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
       <c r="E93" s="31"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="2:5" ht="15.8" customHeight="1">
       <c r="B94" s="31"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
       <c r="E94" s="31"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="2:5" ht="15.8" customHeight="1">
       <c r="B95" s="31"/>
       <c r="C95" s="31"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="2:5" ht="15.8" customHeight="1">
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="2:5" ht="15.8" customHeight="1">
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="2:5" ht="15.8" customHeight="1">
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
       <c r="D98" s="31"/>
       <c r="E98" s="31"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="2:5" ht="15.8" customHeight="1">
       <c r="B99" s="31"/>
       <c r="C99" s="31"/>
       <c r="D99" s="31"/>
       <c r="E99" s="31"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="2:5" ht="15.8" customHeight="1">
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
       <c r="D100" s="31"/>
       <c r="E100" s="31"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="2:5" ht="15.8" customHeight="1">
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
       <c r="E101" s="31"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="2:5" ht="15.8" customHeight="1">
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="2:5" ht="15.8" customHeight="1">
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="2:5" ht="15.8" customHeight="1">
       <c r="B104" s="31"/>
       <c r="C104" s="31"/>
       <c r="D104" s="31"/>
       <c r="E104" s="31"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="2:5" ht="15.8" customHeight="1">
       <c r="B105" s="31"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
       <c r="E105" s="31"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="2:5" ht="15.8" customHeight="1">
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
       <c r="E106" s="31"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="2:5" ht="15.8" customHeight="1">
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
       <c r="E107" s="31"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="2:5" ht="15.8" customHeight="1">
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
       <c r="D108" s="31"/>
       <c r="E108" s="31"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="2:5" ht="15.8" customHeight="1">
       <c r="B109" s="31"/>
       <c r="C109" s="31"/>
       <c r="D109" s="31"/>
       <c r="E109" s="31"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="2:5" ht="15.8" customHeight="1">
       <c r="B110" s="31"/>
       <c r="C110" s="31"/>
       <c r="D110" s="31"/>
       <c r="E110" s="31"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="2:5" ht="15.8" customHeight="1">
       <c r="B111" s="31"/>
       <c r="C111" s="31"/>
       <c r="D111" s="31"/>
       <c r="E111" s="31"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="2:5" ht="15.8" customHeight="1">
       <c r="B112" s="31"/>
       <c r="C112" s="31"/>
       <c r="D112" s="31"/>
       <c r="E112" s="31"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="2:5" ht="15.8" customHeight="1">
       <c r="B113" s="31"/>
       <c r="C113" s="31"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="2:5" ht="15.8" customHeight="1">
       <c r="B114" s="31"/>
       <c r="C114" s="31"/>
       <c r="D114" s="31"/>
       <c r="E114" s="31"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="2:5" ht="15.8" customHeight="1">
       <c r="B115" s="31"/>
       <c r="C115" s="31"/>
       <c r="D115" s="31"/>
       <c r="E115" s="31"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="2:5" ht="15.8" customHeight="1">
       <c r="B116" s="31"/>
       <c r="C116" s="31"/>
       <c r="D116" s="31"/>
       <c r="E116" s="31"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="2:5" ht="15.8" customHeight="1">
       <c r="B117" s="31"/>
       <c r="C117" s="31"/>
       <c r="D117" s="31"/>
       <c r="E117" s="31"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="2:5" ht="15.8" customHeight="1">
       <c r="B118" s="31"/>
       <c r="C118" s="31"/>
       <c r="D118" s="31"/>
       <c r="E118" s="31"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="2:5" ht="15.8" customHeight="1">
       <c r="B119" s="31"/>
       <c r="C119" s="31"/>
       <c r="D119" s="31"/>
       <c r="E119" s="31"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="2:5" ht="15.8" customHeight="1">
       <c r="B120" s="31"/>
       <c r="C120" s="31"/>
       <c r="D120" s="31"/>
       <c r="E120" s="31"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="2:5" ht="15.8" customHeight="1">
       <c r="B121" s="31"/>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
       <c r="E121" s="31"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="2:5" ht="15.8" customHeight="1">
       <c r="B122" s="31"/>
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="2:5" ht="15.8" customHeight="1">
       <c r="B123" s="31"/>
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="2:5" ht="15.8" customHeight="1">
       <c r="B124" s="31"/>
       <c r="C124" s="31"/>
       <c r="D124" s="31"/>
       <c r="E124" s="31"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="2:5" ht="15.8" customHeight="1">
       <c r="B125" s="31"/>
       <c r="C125" s="31"/>
       <c r="D125" s="31"/>
       <c r="E125" s="31"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="2:5" ht="15.8" customHeight="1">
       <c r="B126" s="31"/>
       <c r="C126" s="31"/>
       <c r="D126" s="31"/>
       <c r="E126" s="31"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="2:5" ht="15.8" customHeight="1">
       <c r="B127" s="31"/>
       <c r="C127" s="31"/>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="2:5" ht="15.8" customHeight="1">
       <c r="B128" s="31"/>
       <c r="C128" s="31"/>
       <c r="D128" s="31"/>
       <c r="E128" s="31"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="2:5" ht="15.8" customHeight="1">
       <c r="B129" s="31"/>
       <c r="C129" s="31"/>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="2:5" ht="15.8" customHeight="1">
       <c r="B130" s="31"/>
       <c r="C130" s="31"/>
       <c r="D130" s="31"/>
       <c r="E130" s="31"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="2:5" ht="15.8" customHeight="1">
       <c r="B131" s="31"/>
       <c r="C131" s="31"/>
       <c r="D131" s="31"/>
       <c r="E131" s="31"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="2:5" ht="15.8" customHeight="1">
       <c r="B132" s="31"/>
       <c r="C132" s="31"/>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="2:5" ht="15.8" customHeight="1">
       <c r="B133" s="31"/>
       <c r="C133" s="31"/>
       <c r="D133" s="31"/>
       <c r="E133" s="31"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="2:5" ht="15.8" customHeight="1">
       <c r="B134" s="31"/>
       <c r="C134" s="31"/>
       <c r="D134" s="31"/>
       <c r="E134" s="31"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="2:5" ht="15.8" customHeight="1">
       <c r="B135" s="31"/>
       <c r="C135" s="31"/>
       <c r="D135" s="31"/>
       <c r="E135" s="31"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="2:5" ht="15.8" customHeight="1">
       <c r="B136" s="31"/>
       <c r="C136" s="31"/>
       <c r="D136" s="31"/>
       <c r="E136" s="31"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="2:5" ht="15.8" customHeight="1">
       <c r="B137" s="31"/>
       <c r="C137" s="31"/>
       <c r="D137" s="31"/>
       <c r="E137" s="31"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="2:5" ht="15.8" customHeight="1">
       <c r="B138" s="31"/>
       <c r="C138" s="31"/>
       <c r="D138" s="31"/>
       <c r="E138" s="31"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="2:5" ht="15.8" customHeight="1">
       <c r="B139" s="31"/>
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
       <c r="E139" s="31"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="2:5" ht="15.8" customHeight="1">
       <c r="B140" s="31"/>
       <c r="C140" s="31"/>
       <c r="D140" s="31"/>
       <c r="E140" s="31"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="2:5" ht="15.8" customHeight="1">
       <c r="B141" s="31"/>
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
       <c r="E141" s="31"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="2:5" ht="15.8" customHeight="1">
       <c r="B142" s="31"/>
       <c r="C142" s="31"/>
       <c r="D142" s="31"/>
       <c r="E142" s="31"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="2:5" ht="15.8" customHeight="1">
       <c r="B143" s="31"/>
       <c r="C143" s="31"/>
       <c r="D143" s="31"/>
       <c r="E143" s="31"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="2:5" ht="15.8" customHeight="1">
       <c r="B144" s="31"/>
       <c r="C144" s="31"/>
       <c r="D144" s="31"/>
       <c r="E144" s="31"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="2:5" ht="15.8" customHeight="1">
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
       <c r="E145" s="31"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="2:5" ht="15.8" customHeight="1">
       <c r="B146" s="31"/>
       <c r="C146" s="31"/>
       <c r="D146" s="31"/>
       <c r="E146" s="31"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="2:5" ht="15.8" customHeight="1">
       <c r="B147" s="31"/>
       <c r="C147" s="31"/>
       <c r="D147" s="31"/>
       <c r="E147" s="31"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="2:5" ht="15.8" customHeight="1">
       <c r="B148" s="31"/>
       <c r="C148" s="31"/>
       <c r="D148" s="31"/>
       <c r="E148" s="31"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="2:5" ht="15.8" customHeight="1">
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
       <c r="D149" s="31"/>
       <c r="E149" s="31"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="2:5" ht="15.8" customHeight="1">
       <c r="B150" s="31"/>
       <c r="C150" s="31"/>
       <c r="D150" s="31"/>
       <c r="E150" s="31"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="2:5" ht="15.8" customHeight="1">
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="2:5" ht="15.8" customHeight="1">
       <c r="B152" s="31"/>
       <c r="C152" s="31"/>
       <c r="D152" s="31"/>
       <c r="E152" s="31"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="2:5" ht="15.8" customHeight="1">
       <c r="B153" s="31"/>
       <c r="C153" s="31"/>
       <c r="D153" s="31"/>
       <c r="E153" s="31"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="2:5" ht="15.8" customHeight="1">
       <c r="B154" s="31"/>
       <c r="C154" s="31"/>
       <c r="D154" s="31"/>
       <c r="E154" s="31"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="2:5" ht="15.8" customHeight="1">
       <c r="B155" s="31"/>
       <c r="C155" s="31"/>
       <c r="D155" s="31"/>
       <c r="E155" s="31"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="2:5" ht="15.8" customHeight="1">
       <c r="B156" s="31"/>
       <c r="C156" s="31"/>
       <c r="D156" s="31"/>
       <c r="E156" s="31"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="2:5" ht="15.8" customHeight="1">
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
       <c r="D157" s="31"/>
       <c r="E157" s="31"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="2:5" ht="15.8" customHeight="1">
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
       <c r="D158" s="31"/>
       <c r="E158" s="31"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="2:5" ht="15.8" customHeight="1">
       <c r="B159" s="31"/>
       <c r="C159" s="31"/>
       <c r="D159" s="31"/>
       <c r="E159" s="31"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="2:5" ht="15.8" customHeight="1">
       <c r="B160" s="31"/>
       <c r="C160" s="31"/>
       <c r="D160" s="31"/>
       <c r="E160" s="31"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="2:5" ht="15.8" customHeight="1">
       <c r="B161" s="31"/>
       <c r="C161" s="31"/>
       <c r="D161" s="31"/>
       <c r="E161" s="31"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="2:5" ht="15.8" customHeight="1">
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="31"/>
       <c r="E162" s="31"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="2:5" ht="15.8" customHeight="1">
       <c r="B163" s="31"/>
       <c r="C163" s="31"/>
       <c r="D163" s="31"/>
       <c r="E163" s="31"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="2:5" ht="15.8" customHeight="1">
       <c r="B164" s="31"/>
       <c r="C164" s="31"/>
       <c r="D164" s="31"/>
       <c r="E164" s="31"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="2:5" ht="15.8" customHeight="1">
       <c r="B165" s="31"/>
       <c r="C165" s="31"/>
       <c r="D165" s="31"/>
       <c r="E165" s="31"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="2:5" ht="15.8" customHeight="1">
       <c r="B166" s="31"/>
       <c r="C166" s="31"/>
       <c r="D166" s="31"/>
       <c r="E166" s="31"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="2:5" ht="15.8" customHeight="1">
       <c r="B167" s="31"/>
       <c r="C167" s="31"/>
       <c r="D167" s="31"/>
       <c r="E167" s="31"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="2:5" ht="15.8" customHeight="1">
       <c r="B168" s="31"/>
       <c r="C168" s="31"/>
       <c r="D168" s="31"/>
       <c r="E168" s="31"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="2:5" ht="15.8" customHeight="1">
       <c r="B169" s="31"/>
       <c r="C169" s="31"/>
       <c r="D169" s="31"/>
       <c r="E169" s="31"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="2:5" ht="15.8" customHeight="1">
       <c r="B170" s="31"/>
       <c r="C170" s="31"/>
       <c r="D170" s="31"/>
       <c r="E170" s="31"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="2:5" ht="15.8" customHeight="1">
       <c r="B171" s="31"/>
       <c r="C171" s="31"/>
       <c r="D171" s="31"/>
       <c r="E171" s="31"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="2:5" ht="15.8" customHeight="1">
       <c r="B172" s="31"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="31"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="2:5" ht="15.8" customHeight="1">
       <c r="B173" s="31"/>
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
       <c r="E173" s="31"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="2:5" ht="15.8" customHeight="1">
       <c r="B174" s="31"/>
       <c r="C174" s="31"/>
       <c r="D174" s="31"/>
       <c r="E174" s="31"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="2:5" ht="15.8" customHeight="1">
       <c r="B175" s="31"/>
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
       <c r="E175" s="31"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="2:5" ht="15.8" customHeight="1">
       <c r="B176" s="31"/>
       <c r="C176" s="31"/>
       <c r="D176" s="31"/>
       <c r="E176" s="31"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="2:5" ht="15.8" customHeight="1">
       <c r="B177" s="31"/>
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
       <c r="E177" s="31"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="2:5" ht="15.8" customHeight="1">
       <c r="B178" s="31"/>
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
       <c r="E178" s="31"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="2:5" ht="15.8" customHeight="1">
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
       <c r="D179" s="31"/>
       <c r="E179" s="31"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="2:5" ht="15.8" customHeight="1">
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
       <c r="D180" s="31"/>
       <c r="E180" s="31"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="2:5" ht="15.8" customHeight="1">
       <c r="B181" s="31"/>
       <c r="C181" s="31"/>
       <c r="D181" s="31"/>
       <c r="E181" s="31"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="2:5" ht="15.8" customHeight="1">
       <c r="B182" s="31"/>
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
       <c r="E182" s="31"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="2:5" ht="15.8" customHeight="1">
       <c r="B183" s="31"/>
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
       <c r="E183" s="31"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="2:5" ht="15.8" customHeight="1">
       <c r="B184" s="31"/>
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
       <c r="E184" s="31"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="2:5" ht="15.8" customHeight="1">
       <c r="B185" s="31"/>
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
       <c r="E185" s="31"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="2:5" ht="15.8" customHeight="1">
       <c r="B186" s="31"/>
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
       <c r="E186" s="31"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="2:5" ht="15.8" customHeight="1">
       <c r="B187" s="31"/>
       <c r="C187" s="31"/>
       <c r="D187" s="31"/>
       <c r="E187" s="31"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="2:5" ht="15.8" customHeight="1">
       <c r="B188" s="31"/>
       <c r="C188" s="31"/>
       <c r="D188" s="31"/>
       <c r="E188" s="31"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="2:5" ht="15.8" customHeight="1">
       <c r="B189" s="31"/>
       <c r="C189" s="31"/>
       <c r="D189" s="31"/>
       <c r="E189" s="31"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="2:5" ht="15.8" customHeight="1">
       <c r="B190" s="31"/>
       <c r="C190" s="31"/>
       <c r="D190" s="31"/>
       <c r="E190" s="31"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="2:5" ht="15.8" customHeight="1">
       <c r="B191" s="31"/>
       <c r="C191" s="31"/>
       <c r="D191" s="31"/>
       <c r="E191" s="31"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="2:5" ht="15.8" customHeight="1">
       <c r="B192" s="31"/>
       <c r="C192" s="31"/>
       <c r="D192" s="31"/>
       <c r="E192" s="31"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="2:5" ht="15.8" customHeight="1">
       <c r="B193" s="31"/>
       <c r="C193" s="31"/>
       <c r="D193" s="31"/>
       <c r="E193" s="31"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="2:5" ht="15.8" customHeight="1">
       <c r="B194" s="31"/>
       <c r="C194" s="31"/>
       <c r="D194" s="31"/>
       <c r="E194" s="31"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="2:5" ht="15.8" customHeight="1">
       <c r="B195" s="31"/>
       <c r="C195" s="31"/>
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="2:5" ht="15.8" customHeight="1">
       <c r="B196" s="31"/>
       <c r="C196" s="31"/>
       <c r="D196" s="31"/>
       <c r="E196" s="31"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="2:5" ht="15.8" customHeight="1">
       <c r="B197" s="31"/>
       <c r="C197" s="31"/>
       <c r="D197" s="31"/>
       <c r="E197" s="31"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="2:5" ht="15.8" customHeight="1">
       <c r="B198" s="31"/>
       <c r="C198" s="31"/>
       <c r="D198" s="31"/>
       <c r="E198" s="31"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="2:5" ht="15.8" customHeight="1">
       <c r="B199" s="31"/>
       <c r="C199" s="31"/>
       <c r="D199" s="31"/>
       <c r="E199" s="31"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="2:5" ht="15.8" customHeight="1">
       <c r="B200" s="31"/>
       <c r="C200" s="31"/>
       <c r="D200" s="31"/>
       <c r="E200" s="31"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="2:5" ht="15.8" customHeight="1">
       <c r="B201" s="31"/>
       <c r="C201" s="31"/>
       <c r="D201" s="31"/>
       <c r="E201" s="31"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="2:5" ht="15.8" customHeight="1">
       <c r="B202" s="31"/>
       <c r="C202" s="31"/>
       <c r="D202" s="31"/>
       <c r="E202" s="31"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="2:5" ht="15.8" customHeight="1">
       <c r="B203" s="31"/>
       <c r="C203" s="31"/>
       <c r="D203" s="31"/>
       <c r="E203" s="31"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="2:5" ht="15.8" customHeight="1">
       <c r="B204" s="31"/>
       <c r="C204" s="31"/>
       <c r="D204" s="31"/>
       <c r="E204" s="31"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="2:5" ht="15.8" customHeight="1">
       <c r="B205" s="31"/>
       <c r="C205" s="31"/>
       <c r="D205" s="31"/>
       <c r="E205" s="31"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="2:5" ht="15.8" customHeight="1">
       <c r="B206" s="31"/>
       <c r="C206" s="31"/>
       <c r="D206" s="31"/>
       <c r="E206" s="31"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="2:5" ht="15.8" customHeight="1">
       <c r="B207" s="31"/>
       <c r="C207" s="31"/>
       <c r="D207" s="31"/>
       <c r="E207" s="31"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="2:5" ht="15.8" customHeight="1">
       <c r="B208" s="31"/>
       <c r="C208" s="31"/>
       <c r="D208" s="31"/>
       <c r="E208" s="31"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="2:5" ht="15.8" customHeight="1">
       <c r="B209" s="31"/>
       <c r="C209" s="31"/>
       <c r="D209" s="31"/>
       <c r="E209" s="31"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="2:5" ht="15.8" customHeight="1">
       <c r="B210" s="31"/>
       <c r="C210" s="31"/>
       <c r="D210" s="31"/>
       <c r="E210" s="31"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="2:5" ht="15.8" customHeight="1">
       <c r="B211" s="31"/>
       <c r="C211" s="31"/>
       <c r="D211" s="31"/>
       <c r="E211" s="31"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="2:5" ht="15.8" customHeight="1">
       <c r="B212" s="31"/>
       <c r="C212" s="31"/>
       <c r="D212" s="31"/>
       <c r="E212" s="31"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="2:5" ht="15.8" customHeight="1">
       <c r="B213" s="31"/>
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
       <c r="E213" s="31"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="2:5" ht="15.8" customHeight="1">
       <c r="B214" s="31"/>
       <c r="C214" s="31"/>
       <c r="D214" s="31"/>
       <c r="E214" s="31"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="2:5" ht="15.8" customHeight="1">
       <c r="B215" s="31"/>
       <c r="C215" s="31"/>
       <c r="D215" s="31"/>
       <c r="E215" s="31"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="2:5" ht="15.8" customHeight="1">
       <c r="B216" s="31"/>
       <c r="C216" s="31"/>
       <c r="D216" s="31"/>
       <c r="E216" s="31"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="2:5" ht="15.8" customHeight="1">
       <c r="B217" s="31"/>
       <c r="C217" s="31"/>
       <c r="D217" s="31"/>
       <c r="E217" s="31"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="2:5" ht="15.8" customHeight="1">
       <c r="B218" s="31"/>
       <c r="C218" s="31"/>
       <c r="D218" s="31"/>
       <c r="E218" s="31"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="2:5" ht="15.8" customHeight="1">
       <c r="B219" s="31"/>
       <c r="C219" s="31"/>
       <c r="D219" s="31"/>
       <c r="E219" s="31"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="2:5" ht="15.8" customHeight="1">
       <c r="B220" s="31"/>
       <c r="C220" s="31"/>
       <c r="D220" s="31"/>
       <c r="E220" s="31"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="2:5" ht="15.8" customHeight="1"/>
+    <row r="222" spans="2:5" ht="15.8" customHeight="1"/>
+    <row r="223" spans="2:5" ht="15.8" customHeight="1"/>
+    <row r="224" spans="2:5" ht="15.8" customHeight="1"/>
+    <row r="225" ht="15.8" customHeight="1"/>
+    <row r="226" ht="15.8" customHeight="1"/>
+    <row r="227" ht="15.8" customHeight="1"/>
+    <row r="228" ht="15.8" customHeight="1"/>
+    <row r="229" ht="15.8" customHeight="1"/>
+    <row r="230" ht="15.8" customHeight="1"/>
+    <row r="231" ht="15.8" customHeight="1"/>
+    <row r="232" ht="15.8" customHeight="1"/>
+    <row r="233" ht="15.8" customHeight="1"/>
+    <row r="234" ht="15.8" customHeight="1"/>
+    <row r="235" ht="15.8" customHeight="1"/>
+    <row r="236" ht="15.8" customHeight="1"/>
+    <row r="237" ht="15.8" customHeight="1"/>
+    <row r="238" ht="15.8" customHeight="1"/>
+    <row r="239" ht="15.8" customHeight="1"/>
+    <row r="240" ht="15.8" customHeight="1"/>
+    <row r="241" ht="15.8" customHeight="1"/>
+    <row r="242" ht="15.8" customHeight="1"/>
+    <row r="243" ht="15.8" customHeight="1"/>
+    <row r="244" ht="15.8" customHeight="1"/>
+    <row r="245" ht="15.8" customHeight="1"/>
+    <row r="246" ht="15.8" customHeight="1"/>
+    <row r="247" ht="15.8" customHeight="1"/>
+    <row r="248" ht="15.8" customHeight="1"/>
+    <row r="249" ht="15.8" customHeight="1"/>
+    <row r="250" ht="15.8" customHeight="1"/>
+    <row r="251" ht="15.8" customHeight="1"/>
+    <row r="252" ht="15.8" customHeight="1"/>
+    <row r="253" ht="15.8" customHeight="1"/>
+    <row r="254" ht="15.8" customHeight="1"/>
+    <row r="255" ht="15.8" customHeight="1"/>
+    <row r="256" ht="15.8" customHeight="1"/>
+    <row r="257" ht="15.8" customHeight="1"/>
+    <row r="258" ht="15.8" customHeight="1"/>
+    <row r="259" ht="15.8" customHeight="1"/>
+    <row r="260" ht="15.8" customHeight="1"/>
+    <row r="261" ht="15.8" customHeight="1"/>
+    <row r="262" ht="15.8" customHeight="1"/>
+    <row r="263" ht="15.8" customHeight="1"/>
+    <row r="264" ht="15.8" customHeight="1"/>
+    <row r="265" ht="15.8" customHeight="1"/>
+    <row r="266" ht="15.8" customHeight="1"/>
+    <row r="267" ht="15.8" customHeight="1"/>
+    <row r="268" ht="15.8" customHeight="1"/>
+    <row r="269" ht="15.8" customHeight="1"/>
+    <row r="270" ht="15.8" customHeight="1"/>
+    <row r="271" ht="15.8" customHeight="1"/>
+    <row r="272" ht="15.8" customHeight="1"/>
+    <row r="273" ht="15.8" customHeight="1"/>
+    <row r="274" ht="15.8" customHeight="1"/>
+    <row r="275" ht="15.8" customHeight="1"/>
+    <row r="276" ht="15.8" customHeight="1"/>
+    <row r="277" ht="15.8" customHeight="1"/>
+    <row r="278" ht="15.8" customHeight="1"/>
+    <row r="279" ht="15.8" customHeight="1"/>
+    <row r="280" ht="15.8" customHeight="1"/>
+    <row r="281" ht="15.8" customHeight="1"/>
+    <row r="282" ht="15.8" customHeight="1"/>
+    <row r="283" ht="15.8" customHeight="1"/>
+    <row r="284" ht="15.8" customHeight="1"/>
+    <row r="285" ht="15.8" customHeight="1"/>
+    <row r="286" ht="15.8" customHeight="1"/>
+    <row r="287" ht="15.8" customHeight="1"/>
+    <row r="288" ht="15.8" customHeight="1"/>
+    <row r="289" ht="15.8" customHeight="1"/>
+    <row r="290" ht="15.8" customHeight="1"/>
+    <row r="291" ht="15.8" customHeight="1"/>
+    <row r="292" ht="15.8" customHeight="1"/>
+    <row r="293" ht="15.8" customHeight="1"/>
+    <row r="294" ht="15.8" customHeight="1"/>
+    <row r="295" ht="15.8" customHeight="1"/>
+    <row r="296" ht="15.8" customHeight="1"/>
+    <row r="297" ht="15.8" customHeight="1"/>
+    <row r="298" ht="15.8" customHeight="1"/>
+    <row r="299" ht="15.8" customHeight="1"/>
+    <row r="300" ht="15.8" customHeight="1"/>
+    <row r="301" ht="15.8" customHeight="1"/>
+    <row r="302" ht="15.8" customHeight="1"/>
+    <row r="303" ht="15.8" customHeight="1"/>
+    <row r="304" ht="15.8" customHeight="1"/>
+    <row r="305" ht="15.8" customHeight="1"/>
+    <row r="306" ht="15.8" customHeight="1"/>
+    <row r="307" ht="15.8" customHeight="1"/>
+    <row r="308" ht="15.8" customHeight="1"/>
+    <row r="309" ht="15.8" customHeight="1"/>
+    <row r="310" ht="15.8" customHeight="1"/>
+    <row r="311" ht="15.8" customHeight="1"/>
+    <row r="312" ht="15.8" customHeight="1"/>
+    <row r="313" ht="15.8" customHeight="1"/>
+    <row r="314" ht="15.8" customHeight="1"/>
+    <row r="315" ht="15.8" customHeight="1"/>
+    <row r="316" ht="15.8" customHeight="1"/>
+    <row r="317" ht="15.8" customHeight="1"/>
+    <row r="318" ht="15.8" customHeight="1"/>
+    <row r="319" ht="15.8" customHeight="1"/>
+    <row r="320" ht="15.8" customHeight="1"/>
+    <row r="321" ht="15.8" customHeight="1"/>
+    <row r="322" ht="15.8" customHeight="1"/>
+    <row r="323" ht="15.8" customHeight="1"/>
+    <row r="324" ht="15.8" customHeight="1"/>
+    <row r="325" ht="15.8" customHeight="1"/>
+    <row r="326" ht="15.8" customHeight="1"/>
+    <row r="327" ht="15.8" customHeight="1"/>
+    <row r="328" ht="15.8" customHeight="1"/>
+    <row r="329" ht="15.8" customHeight="1"/>
+    <row r="330" ht="15.8" customHeight="1"/>
+    <row r="331" ht="15.8" customHeight="1"/>
+    <row r="332" ht="15.8" customHeight="1"/>
+    <row r="333" ht="15.8" customHeight="1"/>
+    <row r="334" ht="15.8" customHeight="1"/>
+    <row r="335" ht="15.8" customHeight="1"/>
+    <row r="336" ht="15.8" customHeight="1"/>
+    <row r="337" ht="15.8" customHeight="1"/>
+    <row r="338" ht="15.8" customHeight="1"/>
+    <row r="339" ht="15.8" customHeight="1"/>
+    <row r="340" ht="15.8" customHeight="1"/>
+    <row r="341" ht="15.8" customHeight="1"/>
+    <row r="342" ht="15.8" customHeight="1"/>
+    <row r="343" ht="15.8" customHeight="1"/>
+    <row r="344" ht="15.8" customHeight="1"/>
+    <row r="345" ht="15.8" customHeight="1"/>
+    <row r="346" ht="15.8" customHeight="1"/>
+    <row r="347" ht="15.8" customHeight="1"/>
+    <row r="348" ht="15.8" customHeight="1"/>
+    <row r="349" ht="15.8" customHeight="1"/>
+    <row r="350" ht="15.8" customHeight="1"/>
+    <row r="351" ht="15.8" customHeight="1"/>
+    <row r="352" ht="15.8" customHeight="1"/>
+    <row r="353" ht="15.8" customHeight="1"/>
+    <row r="354" ht="15.8" customHeight="1"/>
+    <row r="355" ht="15.8" customHeight="1"/>
+    <row r="356" ht="15.8" customHeight="1"/>
+    <row r="357" ht="15.8" customHeight="1"/>
+    <row r="358" ht="15.8" customHeight="1"/>
+    <row r="359" ht="15.8" customHeight="1"/>
+    <row r="360" ht="15.8" customHeight="1"/>
+    <row r="361" ht="15.8" customHeight="1"/>
+    <row r="362" ht="15.8" customHeight="1"/>
+    <row r="363" ht="15.8" customHeight="1"/>
+    <row r="364" ht="15.8" customHeight="1"/>
+    <row r="365" ht="15.8" customHeight="1"/>
+    <row r="366" ht="15.8" customHeight="1"/>
+    <row r="367" ht="15.8" customHeight="1"/>
+    <row r="368" ht="15.8" customHeight="1"/>
+    <row r="369" ht="15.8" customHeight="1"/>
+    <row r="370" ht="15.8" customHeight="1"/>
+    <row r="371" ht="15.8" customHeight="1"/>
+    <row r="372" ht="15.8" customHeight="1"/>
+    <row r="373" ht="15.8" customHeight="1"/>
+    <row r="374" ht="15.8" customHeight="1"/>
+    <row r="375" ht="15.8" customHeight="1"/>
+    <row r="376" ht="15.8" customHeight="1"/>
+    <row r="377" ht="15.8" customHeight="1"/>
+    <row r="378" ht="15.8" customHeight="1"/>
+    <row r="379" ht="15.8" customHeight="1"/>
+    <row r="380" ht="15.8" customHeight="1"/>
+    <row r="381" ht="15.8" customHeight="1"/>
+    <row r="382" ht="15.8" customHeight="1"/>
+    <row r="383" ht="15.8" customHeight="1"/>
+    <row r="384" ht="15.8" customHeight="1"/>
+    <row r="385" ht="15.8" customHeight="1"/>
+    <row r="386" ht="15.8" customHeight="1"/>
+    <row r="387" ht="15.8" customHeight="1"/>
+    <row r="388" ht="15.8" customHeight="1"/>
+    <row r="389" ht="15.8" customHeight="1"/>
+    <row r="390" ht="15.8" customHeight="1"/>
+    <row r="391" ht="15.8" customHeight="1"/>
+    <row r="392" ht="15.8" customHeight="1"/>
+    <row r="393" ht="15.8" customHeight="1"/>
+    <row r="394" ht="15.8" customHeight="1"/>
+    <row r="395" ht="15.8" customHeight="1"/>
+    <row r="396" ht="15.8" customHeight="1"/>
+    <row r="397" ht="15.8" customHeight="1"/>
+    <row r="398" ht="15.8" customHeight="1"/>
+    <row r="399" ht="15.8" customHeight="1"/>
+    <row r="400" ht="15.8" customHeight="1"/>
+    <row r="401" ht="15.8" customHeight="1"/>
+    <row r="402" ht="15.8" customHeight="1"/>
+    <row r="403" ht="15.8" customHeight="1"/>
+    <row r="404" ht="15.8" customHeight="1"/>
+    <row r="405" ht="15.8" customHeight="1"/>
+    <row r="406" ht="15.8" customHeight="1"/>
+    <row r="407" ht="15.8" customHeight="1"/>
+    <row r="408" ht="15.8" customHeight="1"/>
+    <row r="409" ht="15.8" customHeight="1"/>
+    <row r="410" ht="15.8" customHeight="1"/>
+    <row r="411" ht="15.8" customHeight="1"/>
+    <row r="412" ht="15.8" customHeight="1"/>
+    <row r="413" ht="15.8" customHeight="1"/>
+    <row r="414" ht="15.8" customHeight="1"/>
+    <row r="415" ht="15.8" customHeight="1"/>
+    <row r="416" ht="15.8" customHeight="1"/>
+    <row r="417" ht="15.8" customHeight="1"/>
+    <row r="418" ht="15.8" customHeight="1"/>
+    <row r="419" ht="15.8" customHeight="1"/>
+    <row r="420" ht="15.8" customHeight="1"/>
+    <row r="421" ht="15.8" customHeight="1"/>
+    <row r="422" ht="15.8" customHeight="1"/>
+    <row r="423" ht="15.8" customHeight="1"/>
+    <row r="424" ht="15.8" customHeight="1"/>
+    <row r="425" ht="15.8" customHeight="1"/>
+    <row r="426" ht="15.8" customHeight="1"/>
+    <row r="427" ht="15.8" customHeight="1"/>
+    <row r="428" ht="15.8" customHeight="1"/>
+    <row r="429" ht="15.8" customHeight="1"/>
+    <row r="430" ht="15.8" customHeight="1"/>
+    <row r="431" ht="15.8" customHeight="1"/>
+    <row r="432" ht="15.8" customHeight="1"/>
+    <row r="433" ht="15.8" customHeight="1"/>
+    <row r="434" ht="15.8" customHeight="1"/>
+    <row r="435" ht="15.8" customHeight="1"/>
+    <row r="436" ht="15.8" customHeight="1"/>
+    <row r="437" ht="15.8" customHeight="1"/>
+    <row r="438" ht="15.8" customHeight="1"/>
+    <row r="439" ht="15.8" customHeight="1"/>
+    <row r="440" ht="15.8" customHeight="1"/>
+    <row r="441" ht="15.8" customHeight="1"/>
+    <row r="442" ht="15.8" customHeight="1"/>
+    <row r="443" ht="15.8" customHeight="1"/>
+    <row r="444" ht="15.8" customHeight="1"/>
+    <row r="445" ht="15.8" customHeight="1"/>
+    <row r="446" ht="15.8" customHeight="1"/>
+    <row r="447" ht="15.8" customHeight="1"/>
+    <row r="448" ht="15.8" customHeight="1"/>
+    <row r="449" ht="15.8" customHeight="1"/>
+    <row r="450" ht="15.8" customHeight="1"/>
+    <row r="451" ht="15.8" customHeight="1"/>
+    <row r="452" ht="15.8" customHeight="1"/>
+    <row r="453" ht="15.8" customHeight="1"/>
+    <row r="454" ht="15.8" customHeight="1"/>
+    <row r="455" ht="15.8" customHeight="1"/>
+    <row r="456" ht="15.8" customHeight="1"/>
+    <row r="457" ht="15.8" customHeight="1"/>
+    <row r="458" ht="15.8" customHeight="1"/>
+    <row r="459" ht="15.8" customHeight="1"/>
+    <row r="460" ht="15.8" customHeight="1"/>
+    <row r="461" ht="15.8" customHeight="1"/>
+    <row r="462" ht="15.8" customHeight="1"/>
+    <row r="463" ht="15.8" customHeight="1"/>
+    <row r="464" ht="15.8" customHeight="1"/>
+    <row r="465" ht="15.8" customHeight="1"/>
+    <row r="466" ht="15.8" customHeight="1"/>
+    <row r="467" ht="15.8" customHeight="1"/>
+    <row r="468" ht="15.8" customHeight="1"/>
+    <row r="469" ht="15.8" customHeight="1"/>
+    <row r="470" ht="15.8" customHeight="1"/>
+    <row r="471" ht="15.8" customHeight="1"/>
+    <row r="472" ht="15.8" customHeight="1"/>
+    <row r="473" ht="15.8" customHeight="1"/>
+    <row r="474" ht="15.8" customHeight="1"/>
+    <row r="475" ht="15.8" customHeight="1"/>
+    <row r="476" ht="15.8" customHeight="1"/>
+    <row r="477" ht="15.8" customHeight="1"/>
+    <row r="478" ht="15.8" customHeight="1"/>
+    <row r="479" ht="15.8" customHeight="1"/>
+    <row r="480" ht="15.8" customHeight="1"/>
+    <row r="481" ht="15.8" customHeight="1"/>
+    <row r="482" ht="15.8" customHeight="1"/>
+    <row r="483" ht="15.8" customHeight="1"/>
+    <row r="484" ht="15.8" customHeight="1"/>
+    <row r="485" ht="15.8" customHeight="1"/>
+    <row r="486" ht="15.8" customHeight="1"/>
+    <row r="487" ht="15.8" customHeight="1"/>
+    <row r="488" ht="15.8" customHeight="1"/>
+    <row r="489" ht="15.8" customHeight="1"/>
+    <row r="490" ht="15.8" customHeight="1"/>
+    <row r="491" ht="15.8" customHeight="1"/>
+    <row r="492" ht="15.8" customHeight="1"/>
+    <row r="493" ht="15.8" customHeight="1"/>
+    <row r="494" ht="15.8" customHeight="1"/>
+    <row r="495" ht="15.8" customHeight="1"/>
+    <row r="496" ht="15.8" customHeight="1"/>
+    <row r="497" ht="15.8" customHeight="1"/>
+    <row r="498" ht="15.8" customHeight="1"/>
+    <row r="499" ht="15.8" customHeight="1"/>
+    <row r="500" ht="15.8" customHeight="1"/>
+    <row r="501" ht="15.8" customHeight="1"/>
+    <row r="502" ht="15.8" customHeight="1"/>
+    <row r="503" ht="15.8" customHeight="1"/>
+    <row r="504" ht="15.8" customHeight="1"/>
+    <row r="505" ht="15.8" customHeight="1"/>
+    <row r="506" ht="15.8" customHeight="1"/>
+    <row r="507" ht="15.8" customHeight="1"/>
+    <row r="508" ht="15.8" customHeight="1"/>
+    <row r="509" ht="15.8" customHeight="1"/>
+    <row r="510" ht="15.8" customHeight="1"/>
+    <row r="511" ht="15.8" customHeight="1"/>
+    <row r="512" ht="15.8" customHeight="1"/>
+    <row r="513" ht="15.8" customHeight="1"/>
+    <row r="514" ht="15.8" customHeight="1"/>
+    <row r="515" ht="15.8" customHeight="1"/>
+    <row r="516" ht="15.8" customHeight="1"/>
+    <row r="517" ht="15.8" customHeight="1"/>
+    <row r="518" ht="15.8" customHeight="1"/>
+    <row r="519" ht="15.8" customHeight="1"/>
+    <row r="520" ht="15.8" customHeight="1"/>
+    <row r="521" ht="15.8" customHeight="1"/>
+    <row r="522" ht="15.8" customHeight="1"/>
+    <row r="523" ht="15.8" customHeight="1"/>
+    <row r="524" ht="15.8" customHeight="1"/>
+    <row r="525" ht="15.8" customHeight="1"/>
+    <row r="526" ht="15.8" customHeight="1"/>
+    <row r="527" ht="15.8" customHeight="1"/>
+    <row r="528" ht="15.8" customHeight="1"/>
+    <row r="529" ht="15.8" customHeight="1"/>
+    <row r="530" ht="15.8" customHeight="1"/>
+    <row r="531" ht="15.8" customHeight="1"/>
+    <row r="532" ht="15.8" customHeight="1"/>
+    <row r="533" ht="15.8" customHeight="1"/>
+    <row r="534" ht="15.8" customHeight="1"/>
+    <row r="535" ht="15.8" customHeight="1"/>
+    <row r="536" ht="15.8" customHeight="1"/>
+    <row r="537" ht="15.8" customHeight="1"/>
+    <row r="538" ht="15.8" customHeight="1"/>
+    <row r="539" ht="15.8" customHeight="1"/>
+    <row r="540" ht="15.8" customHeight="1"/>
+    <row r="541" ht="15.8" customHeight="1"/>
+    <row r="542" ht="15.8" customHeight="1"/>
+    <row r="543" ht="15.8" customHeight="1"/>
+    <row r="544" ht="15.8" customHeight="1"/>
+    <row r="545" ht="15.8" customHeight="1"/>
+    <row r="546" ht="15.8" customHeight="1"/>
+    <row r="547" ht="15.8" customHeight="1"/>
+    <row r="548" ht="15.8" customHeight="1"/>
+    <row r="549" ht="15.8" customHeight="1"/>
+    <row r="550" ht="15.8" customHeight="1"/>
+    <row r="551" ht="15.8" customHeight="1"/>
+    <row r="552" ht="15.8" customHeight="1"/>
+    <row r="553" ht="15.8" customHeight="1"/>
+    <row r="554" ht="15.8" customHeight="1"/>
+    <row r="555" ht="15.8" customHeight="1"/>
+    <row r="556" ht="15.8" customHeight="1"/>
+    <row r="557" ht="15.8" customHeight="1"/>
+    <row r="558" ht="15.8" customHeight="1"/>
+    <row r="559" ht="15.8" customHeight="1"/>
+    <row r="560" ht="15.8" customHeight="1"/>
+    <row r="561" ht="15.8" customHeight="1"/>
+    <row r="562" ht="15.8" customHeight="1"/>
+    <row r="563" ht="15.8" customHeight="1"/>
+    <row r="564" ht="15.8" customHeight="1"/>
+    <row r="565" ht="15.8" customHeight="1"/>
+    <row r="566" ht="15.8" customHeight="1"/>
+    <row r="567" ht="15.8" customHeight="1"/>
+    <row r="568" ht="15.8" customHeight="1"/>
+    <row r="569" ht="15.8" customHeight="1"/>
+    <row r="570" ht="15.8" customHeight="1"/>
+    <row r="571" ht="15.8" customHeight="1"/>
+    <row r="572" ht="15.8" customHeight="1"/>
+    <row r="573" ht="15.8" customHeight="1"/>
+    <row r="574" ht="15.8" customHeight="1"/>
+    <row r="575" ht="15.8" customHeight="1"/>
+    <row r="576" ht="15.8" customHeight="1"/>
+    <row r="577" ht="15.8" customHeight="1"/>
+    <row r="578" ht="15.8" customHeight="1"/>
+    <row r="579" ht="15.8" customHeight="1"/>
+    <row r="580" ht="15.8" customHeight="1"/>
+    <row r="581" ht="15.8" customHeight="1"/>
+    <row r="582" ht="15.8" customHeight="1"/>
+    <row r="583" ht="15.8" customHeight="1"/>
+    <row r="584" ht="15.8" customHeight="1"/>
+    <row r="585" ht="15.8" customHeight="1"/>
+    <row r="586" ht="15.8" customHeight="1"/>
+    <row r="587" ht="15.8" customHeight="1"/>
+    <row r="588" ht="15.8" customHeight="1"/>
+    <row r="589" ht="15.8" customHeight="1"/>
+    <row r="590" ht="15.8" customHeight="1"/>
+    <row r="591" ht="15.8" customHeight="1"/>
+    <row r="592" ht="15.8" customHeight="1"/>
+    <row r="593" ht="15.8" customHeight="1"/>
+    <row r="594" ht="15.8" customHeight="1"/>
+    <row r="595" ht="15.8" customHeight="1"/>
+    <row r="596" ht="15.8" customHeight="1"/>
+    <row r="597" ht="15.8" customHeight="1"/>
+    <row r="598" ht="15.8" customHeight="1"/>
+    <row r="599" ht="15.8" customHeight="1"/>
+    <row r="600" ht="15.8" customHeight="1"/>
+    <row r="601" ht="15.8" customHeight="1"/>
+    <row r="602" ht="15.8" customHeight="1"/>
+    <row r="603" ht="15.8" customHeight="1"/>
+    <row r="604" ht="15.8" customHeight="1"/>
+    <row r="605" ht="15.8" customHeight="1"/>
+    <row r="606" ht="15.8" customHeight="1"/>
+    <row r="607" ht="15.8" customHeight="1"/>
+    <row r="608" ht="15.8" customHeight="1"/>
+    <row r="609" ht="15.8" customHeight="1"/>
+    <row r="610" ht="15.8" customHeight="1"/>
+    <row r="611" ht="15.8" customHeight="1"/>
+    <row r="612" ht="15.8" customHeight="1"/>
+    <row r="613" ht="15.8" customHeight="1"/>
+    <row r="614" ht="15.8" customHeight="1"/>
+    <row r="615" ht="15.8" customHeight="1"/>
+    <row r="616" ht="15.8" customHeight="1"/>
+    <row r="617" ht="15.8" customHeight="1"/>
+    <row r="618" ht="15.8" customHeight="1"/>
+    <row r="619" ht="15.8" customHeight="1"/>
+    <row r="620" ht="15.8" customHeight="1"/>
+    <row r="621" ht="15.8" customHeight="1"/>
+    <row r="622" ht="15.8" customHeight="1"/>
+    <row r="623" ht="15.8" customHeight="1"/>
+    <row r="624" ht="15.8" customHeight="1"/>
+    <row r="625" ht="15.8" customHeight="1"/>
+    <row r="626" ht="15.8" customHeight="1"/>
+    <row r="627" ht="15.8" customHeight="1"/>
+    <row r="628" ht="15.8" customHeight="1"/>
+    <row r="629" ht="15.8" customHeight="1"/>
+    <row r="630" ht="15.8" customHeight="1"/>
+    <row r="631" ht="15.8" customHeight="1"/>
+    <row r="632" ht="15.8" customHeight="1"/>
+    <row r="633" ht="15.8" customHeight="1"/>
+    <row r="634" ht="15.8" customHeight="1"/>
+    <row r="635" ht="15.8" customHeight="1"/>
+    <row r="636" ht="15.8" customHeight="1"/>
+    <row r="637" ht="15.8" customHeight="1"/>
+    <row r="638" ht="15.8" customHeight="1"/>
+    <row r="639" ht="15.8" customHeight="1"/>
+    <row r="640" ht="15.8" customHeight="1"/>
+    <row r="641" ht="15.8" customHeight="1"/>
+    <row r="642" ht="15.8" customHeight="1"/>
+    <row r="643" ht="15.8" customHeight="1"/>
+    <row r="644" ht="15.8" customHeight="1"/>
+    <row r="645" ht="15.8" customHeight="1"/>
+    <row r="646" ht="15.8" customHeight="1"/>
+    <row r="647" ht="15.8" customHeight="1"/>
+    <row r="648" ht="15.8" customHeight="1"/>
+    <row r="649" ht="15.8" customHeight="1"/>
+    <row r="650" ht="15.8" customHeight="1"/>
+    <row r="651" ht="15.8" customHeight="1"/>
+    <row r="652" ht="15.8" customHeight="1"/>
+    <row r="653" ht="15.8" customHeight="1"/>
+    <row r="654" ht="15.8" customHeight="1"/>
+    <row r="655" ht="15.8" customHeight="1"/>
+    <row r="656" ht="15.8" customHeight="1"/>
+    <row r="657" ht="15.8" customHeight="1"/>
+    <row r="658" ht="15.8" customHeight="1"/>
+    <row r="659" ht="15.8" customHeight="1"/>
+    <row r="660" ht="15.8" customHeight="1"/>
+    <row r="661" ht="15.8" customHeight="1"/>
+    <row r="662" ht="15.8" customHeight="1"/>
+    <row r="663" ht="15.8" customHeight="1"/>
+    <row r="664" ht="15.8" customHeight="1"/>
+    <row r="665" ht="15.8" customHeight="1"/>
+    <row r="666" ht="15.8" customHeight="1"/>
+    <row r="667" ht="15.8" customHeight="1"/>
+    <row r="668" ht="15.8" customHeight="1"/>
+    <row r="669" ht="15.8" customHeight="1"/>
+    <row r="670" ht="15.8" customHeight="1"/>
+    <row r="671" ht="15.8" customHeight="1"/>
+    <row r="672" ht="15.8" customHeight="1"/>
+    <row r="673" ht="15.8" customHeight="1"/>
+    <row r="674" ht="15.8" customHeight="1"/>
+    <row r="675" ht="15.8" customHeight="1"/>
+    <row r="676" ht="15.8" customHeight="1"/>
+    <row r="677" ht="15.8" customHeight="1"/>
+    <row r="678" ht="15.8" customHeight="1"/>
+    <row r="679" ht="15.8" customHeight="1"/>
+    <row r="680" ht="15.8" customHeight="1"/>
+    <row r="681" ht="15.8" customHeight="1"/>
+    <row r="682" ht="15.8" customHeight="1"/>
+    <row r="683" ht="15.8" customHeight="1"/>
+    <row r="684" ht="15.8" customHeight="1"/>
+    <row r="685" ht="15.8" customHeight="1"/>
+    <row r="686" ht="15.8" customHeight="1"/>
+    <row r="687" ht="15.8" customHeight="1"/>
+    <row r="688" ht="15.8" customHeight="1"/>
+    <row r="689" ht="15.8" customHeight="1"/>
+    <row r="690" ht="15.8" customHeight="1"/>
+    <row r="691" ht="15.8" customHeight="1"/>
+    <row r="692" ht="15.8" customHeight="1"/>
+    <row r="693" ht="15.8" customHeight="1"/>
+    <row r="694" ht="15.8" customHeight="1"/>
+    <row r="695" ht="15.8" customHeight="1"/>
+    <row r="696" ht="15.8" customHeight="1"/>
+    <row r="697" ht="15.8" customHeight="1"/>
+    <row r="698" ht="15.8" customHeight="1"/>
+    <row r="699" ht="15.8" customHeight="1"/>
+    <row r="700" ht="15.8" customHeight="1"/>
+    <row r="701" ht="15.8" customHeight="1"/>
+    <row r="702" ht="15.8" customHeight="1"/>
+    <row r="703" ht="15.8" customHeight="1"/>
+    <row r="704" ht="15.8" customHeight="1"/>
+    <row r="705" ht="15.8" customHeight="1"/>
+    <row r="706" ht="15.8" customHeight="1"/>
+    <row r="707" ht="15.8" customHeight="1"/>
+    <row r="708" ht="15.8" customHeight="1"/>
+    <row r="709" ht="15.8" customHeight="1"/>
+    <row r="710" ht="15.8" customHeight="1"/>
+    <row r="711" ht="15.8" customHeight="1"/>
+    <row r="712" ht="15.8" customHeight="1"/>
+    <row r="713" ht="15.8" customHeight="1"/>
+    <row r="714" ht="15.8" customHeight="1"/>
+    <row r="715" ht="15.8" customHeight="1"/>
+    <row r="716" ht="15.8" customHeight="1"/>
+    <row r="717" ht="15.8" customHeight="1"/>
+    <row r="718" ht="15.8" customHeight="1"/>
+    <row r="719" ht="15.8" customHeight="1"/>
+    <row r="720" ht="15.8" customHeight="1"/>
+    <row r="721" ht="15.8" customHeight="1"/>
+    <row r="722" ht="15.8" customHeight="1"/>
+    <row r="723" ht="15.8" customHeight="1"/>
+    <row r="724" ht="15.8" customHeight="1"/>
+    <row r="725" ht="15.8" customHeight="1"/>
+    <row r="726" ht="15.8" customHeight="1"/>
+    <row r="727" ht="15.8" customHeight="1"/>
+    <row r="728" ht="15.8" customHeight="1"/>
+    <row r="729" ht="15.8" customHeight="1"/>
+    <row r="730" ht="15.8" customHeight="1"/>
+    <row r="731" ht="15.8" customHeight="1"/>
+    <row r="732" ht="15.8" customHeight="1"/>
+    <row r="733" ht="15.8" customHeight="1"/>
+    <row r="734" ht="15.8" customHeight="1"/>
+    <row r="735" ht="15.8" customHeight="1"/>
+    <row r="736" ht="15.8" customHeight="1"/>
+    <row r="737" ht="15.8" customHeight="1"/>
+    <row r="738" ht="15.8" customHeight="1"/>
+    <row r="739" ht="15.8" customHeight="1"/>
+    <row r="740" ht="15.8" customHeight="1"/>
+    <row r="741" ht="15.8" customHeight="1"/>
+    <row r="742" ht="15.8" customHeight="1"/>
+    <row r="743" ht="15.8" customHeight="1"/>
+    <row r="744" ht="15.8" customHeight="1"/>
+    <row r="745" ht="15.8" customHeight="1"/>
+    <row r="746" ht="15.8" customHeight="1"/>
+    <row r="747" ht="15.8" customHeight="1"/>
+    <row r="748" ht="15.8" customHeight="1"/>
+    <row r="749" ht="15.8" customHeight="1"/>
+    <row r="750" ht="15.8" customHeight="1"/>
+    <row r="751" ht="15.8" customHeight="1"/>
+    <row r="752" ht="15.8" customHeight="1"/>
+    <row r="753" ht="15.8" customHeight="1"/>
+    <row r="754" ht="15.8" customHeight="1"/>
+    <row r="755" ht="15.8" customHeight="1"/>
+    <row r="756" ht="15.8" customHeight="1"/>
+    <row r="757" ht="15.8" customHeight="1"/>
+    <row r="758" ht="15.8" customHeight="1"/>
+    <row r="759" ht="15.8" customHeight="1"/>
+    <row r="760" ht="15.8" customHeight="1"/>
+    <row r="761" ht="15.8" customHeight="1"/>
+    <row r="762" ht="15.8" customHeight="1"/>
+    <row r="763" ht="15.8" customHeight="1"/>
+    <row r="764" ht="15.8" customHeight="1"/>
+    <row r="765" ht="15.8" customHeight="1"/>
+    <row r="766" ht="15.8" customHeight="1"/>
+    <row r="767" ht="15.8" customHeight="1"/>
+    <row r="768" ht="15.8" customHeight="1"/>
+    <row r="769" ht="15.8" customHeight="1"/>
+    <row r="770" ht="15.8" customHeight="1"/>
+    <row r="771" ht="15.8" customHeight="1"/>
+    <row r="772" ht="15.8" customHeight="1"/>
+    <row r="773" ht="15.8" customHeight="1"/>
+    <row r="774" ht="15.8" customHeight="1"/>
+    <row r="775" ht="15.8" customHeight="1"/>
+    <row r="776" ht="15.8" customHeight="1"/>
+    <row r="777" ht="15.8" customHeight="1"/>
+    <row r="778" ht="15.8" customHeight="1"/>
+    <row r="779" ht="15.8" customHeight="1"/>
+    <row r="780" ht="15.8" customHeight="1"/>
+    <row r="781" ht="15.8" customHeight="1"/>
+    <row r="782" ht="15.8" customHeight="1"/>
+    <row r="783" ht="15.8" customHeight="1"/>
+    <row r="784" ht="15.8" customHeight="1"/>
+    <row r="785" ht="15.8" customHeight="1"/>
+    <row r="786" ht="15.8" customHeight="1"/>
+    <row r="787" ht="15.8" customHeight="1"/>
+    <row r="788" ht="15.8" customHeight="1"/>
+    <row r="789" ht="15.8" customHeight="1"/>
+    <row r="790" ht="15.8" customHeight="1"/>
+    <row r="791" ht="15.8" customHeight="1"/>
+    <row r="792" ht="15.8" customHeight="1"/>
+    <row r="793" ht="15.8" customHeight="1"/>
+    <row r="794" ht="15.8" customHeight="1"/>
+    <row r="795" ht="15.8" customHeight="1"/>
+    <row r="796" ht="15.8" customHeight="1"/>
+    <row r="797" ht="15.8" customHeight="1"/>
+    <row r="798" ht="15.8" customHeight="1"/>
+    <row r="799" ht="15.8" customHeight="1"/>
+    <row r="800" ht="15.8" customHeight="1"/>
+    <row r="801" ht="15.8" customHeight="1"/>
+    <row r="802" ht="15.8" customHeight="1"/>
+    <row r="803" ht="15.8" customHeight="1"/>
+    <row r="804" ht="15.8" customHeight="1"/>
+    <row r="805" ht="15.8" customHeight="1"/>
+    <row r="806" ht="15.8" customHeight="1"/>
+    <row r="807" ht="15.8" customHeight="1"/>
+    <row r="808" ht="15.8" customHeight="1"/>
+    <row r="809" ht="15.8" customHeight="1"/>
+    <row r="810" ht="15.8" customHeight="1"/>
+    <row r="811" ht="15.8" customHeight="1"/>
+    <row r="812" ht="15.8" customHeight="1"/>
+    <row r="813" ht="15.8" customHeight="1"/>
+    <row r="814" ht="15.8" customHeight="1"/>
+    <row r="815" ht="15.8" customHeight="1"/>
+    <row r="816" ht="15.8" customHeight="1"/>
+    <row r="817" ht="15.8" customHeight="1"/>
+    <row r="818" ht="15.8" customHeight="1"/>
+    <row r="819" ht="15.8" customHeight="1"/>
+    <row r="820" ht="15.8" customHeight="1"/>
+    <row r="821" ht="15.8" customHeight="1"/>
+    <row r="822" ht="15.8" customHeight="1"/>
+    <row r="823" ht="15.8" customHeight="1"/>
+    <row r="824" ht="15.8" customHeight="1"/>
+    <row r="825" ht="15.8" customHeight="1"/>
+    <row r="826" ht="15.8" customHeight="1"/>
+    <row r="827" ht="15.8" customHeight="1"/>
+    <row r="828" ht="15.8" customHeight="1"/>
+    <row r="829" ht="15.8" customHeight="1"/>
+    <row r="830" ht="15.8" customHeight="1"/>
+    <row r="831" ht="15.8" customHeight="1"/>
+    <row r="832" ht="15.8" customHeight="1"/>
+    <row r="833" ht="15.8" customHeight="1"/>
+    <row r="834" ht="15.8" customHeight="1"/>
+    <row r="835" ht="15.8" customHeight="1"/>
+    <row r="836" ht="15.8" customHeight="1"/>
+    <row r="837" ht="15.8" customHeight="1"/>
+    <row r="838" ht="15.8" customHeight="1"/>
+    <row r="839" ht="15.8" customHeight="1"/>
+    <row r="840" ht="15.8" customHeight="1"/>
+    <row r="841" ht="15.8" customHeight="1"/>
+    <row r="842" ht="15.8" customHeight="1"/>
+    <row r="843" ht="15.8" customHeight="1"/>
+    <row r="844" ht="15.8" customHeight="1"/>
+    <row r="845" ht="15.8" customHeight="1"/>
+    <row r="846" ht="15.8" customHeight="1"/>
+    <row r="847" ht="15.8" customHeight="1"/>
+    <row r="848" ht="15.8" customHeight="1"/>
+    <row r="849" ht="15.8" customHeight="1"/>
+    <row r="850" ht="15.8" customHeight="1"/>
+    <row r="851" ht="15.8" customHeight="1"/>
+    <row r="852" ht="15.8" customHeight="1"/>
+    <row r="853" ht="15.8" customHeight="1"/>
+    <row r="854" ht="15.8" customHeight="1"/>
+    <row r="855" ht="15.8" customHeight="1"/>
+    <row r="856" ht="15.8" customHeight="1"/>
+    <row r="857" ht="15.8" customHeight="1"/>
+    <row r="858" ht="15.8" customHeight="1"/>
+    <row r="859" ht="15.8" customHeight="1"/>
+    <row r="860" ht="15.8" customHeight="1"/>
+    <row r="861" ht="15.8" customHeight="1"/>
+    <row r="862" ht="15.8" customHeight="1"/>
+    <row r="863" ht="15.8" customHeight="1"/>
+    <row r="864" ht="15.8" customHeight="1"/>
+    <row r="865" ht="15.8" customHeight="1"/>
+    <row r="866" ht="15.8" customHeight="1"/>
+    <row r="867" ht="15.8" customHeight="1"/>
+    <row r="868" ht="15.8" customHeight="1"/>
+    <row r="869" ht="15.8" customHeight="1"/>
+    <row r="870" ht="15.8" customHeight="1"/>
+    <row r="871" ht="15.8" customHeight="1"/>
+    <row r="872" ht="15.8" customHeight="1"/>
+    <row r="873" ht="15.8" customHeight="1"/>
+    <row r="874" ht="15.8" customHeight="1"/>
+    <row r="875" ht="15.8" customHeight="1"/>
+    <row r="876" ht="15.8" customHeight="1"/>
+    <row r="877" ht="15.8" customHeight="1"/>
+    <row r="878" ht="15.8" customHeight="1"/>
+    <row r="879" ht="15.8" customHeight="1"/>
+    <row r="880" ht="15.8" customHeight="1"/>
+    <row r="881" ht="15.8" customHeight="1"/>
+    <row r="882" ht="15.8" customHeight="1"/>
+    <row r="883" ht="15.8" customHeight="1"/>
+    <row r="884" ht="15.8" customHeight="1"/>
+    <row r="885" ht="15.8" customHeight="1"/>
+    <row r="886" ht="15.8" customHeight="1"/>
+    <row r="887" ht="15.8" customHeight="1"/>
+    <row r="888" ht="15.8" customHeight="1"/>
+    <row r="889" ht="15.8" customHeight="1"/>
+    <row r="890" ht="15.8" customHeight="1"/>
+    <row r="891" ht="15.8" customHeight="1"/>
+    <row r="892" ht="15.8" customHeight="1"/>
+    <row r="893" ht="15.8" customHeight="1"/>
+    <row r="894" ht="15.8" customHeight="1"/>
+    <row r="895" ht="15.8" customHeight="1"/>
+    <row r="896" ht="15.8" customHeight="1"/>
+    <row r="897" ht="15.8" customHeight="1"/>
+    <row r="898" ht="15.8" customHeight="1"/>
+    <row r="899" ht="15.8" customHeight="1"/>
+    <row r="900" ht="15.8" customHeight="1"/>
+    <row r="901" ht="15.8" customHeight="1"/>
+    <row r="902" ht="15.8" customHeight="1"/>
+    <row r="903" ht="15.8" customHeight="1"/>
+    <row r="904" ht="15.8" customHeight="1"/>
+    <row r="905" ht="15.8" customHeight="1"/>
+    <row r="906" ht="15.8" customHeight="1"/>
+    <row r="907" ht="15.8" customHeight="1"/>
+    <row r="908" ht="15.8" customHeight="1"/>
+    <row r="909" ht="15.8" customHeight="1"/>
+    <row r="910" ht="15.8" customHeight="1"/>
+    <row r="911" ht="15.8" customHeight="1"/>
+    <row r="912" ht="15.8" customHeight="1"/>
+    <row r="913" ht="15.8" customHeight="1"/>
+    <row r="914" ht="15.8" customHeight="1"/>
+    <row r="915" ht="15.8" customHeight="1"/>
+    <row r="916" ht="15.8" customHeight="1"/>
+    <row r="917" ht="15.8" customHeight="1"/>
+    <row r="918" ht="15.8" customHeight="1"/>
+    <row r="919" ht="15.8" customHeight="1"/>
+    <row r="920" ht="15.8" customHeight="1"/>
+    <row r="921" ht="15.8" customHeight="1"/>
+    <row r="922" ht="15.8" customHeight="1"/>
+    <row r="923" ht="15.8" customHeight="1"/>
+    <row r="924" ht="15.8" customHeight="1"/>
+    <row r="925" ht="15.8" customHeight="1"/>
+    <row r="926" ht="15.8" customHeight="1"/>
+    <row r="927" ht="15.8" customHeight="1"/>
+    <row r="928" ht="15.8" customHeight="1"/>
+    <row r="929" ht="15.8" customHeight="1"/>
+    <row r="930" ht="15.8" customHeight="1"/>
+    <row r="931" ht="15.8" customHeight="1"/>
+    <row r="932" ht="15.8" customHeight="1"/>
+    <row r="933" ht="15.8" customHeight="1"/>
+    <row r="934" ht="15.8" customHeight="1"/>
+    <row r="935" ht="15.8" customHeight="1"/>
+    <row r="936" ht="15.8" customHeight="1"/>
+    <row r="937" ht="15.8" customHeight="1"/>
+    <row r="938" ht="15.8" customHeight="1"/>
+    <row r="939" ht="15.8" customHeight="1"/>
+    <row r="940" ht="15.8" customHeight="1"/>
+    <row r="941" ht="15.8" customHeight="1"/>
+    <row r="942" ht="15.8" customHeight="1"/>
+    <row r="943" ht="15.8" customHeight="1"/>
+    <row r="944" ht="15.8" customHeight="1"/>
+    <row r="945" ht="15.8" customHeight="1"/>
+    <row r="946" ht="15.8" customHeight="1"/>
+    <row r="947" ht="15.8" customHeight="1"/>
+    <row r="948" ht="15.8" customHeight="1"/>
+    <row r="949" ht="15.8" customHeight="1"/>
+    <row r="950" ht="15.8" customHeight="1"/>
+    <row r="951" ht="15.8" customHeight="1"/>
+    <row r="952" ht="15.8" customHeight="1"/>
+    <row r="953" ht="15.8" customHeight="1"/>
+    <row r="954" ht="15.8" customHeight="1"/>
+    <row r="955" ht="15.8" customHeight="1"/>
+    <row r="956" ht="15.8" customHeight="1"/>
+    <row r="957" ht="15.8" customHeight="1"/>
+    <row r="958" ht="15.8" customHeight="1"/>
+    <row r="959" ht="15.8" customHeight="1"/>
+    <row r="960" ht="15.8" customHeight="1"/>
+    <row r="961" ht="15.8" customHeight="1"/>
+    <row r="962" ht="15.8" customHeight="1"/>
+    <row r="963" ht="15.8" customHeight="1"/>
+    <row r="964" ht="15.8" customHeight="1"/>
+    <row r="965" ht="15.8" customHeight="1"/>
+    <row r="966" ht="15.8" customHeight="1"/>
+    <row r="967" ht="15.8" customHeight="1"/>
+    <row r="968" ht="15.8" customHeight="1"/>
+    <row r="969" ht="15.8" customHeight="1"/>
+    <row r="970" ht="15.8" customHeight="1"/>
+    <row r="971" ht="15.8" customHeight="1"/>
+    <row r="972" ht="15.8" customHeight="1"/>
+    <row r="973" ht="15.8" customHeight="1"/>
+    <row r="974" ht="15.8" customHeight="1"/>
+    <row r="975" ht="15.8" customHeight="1"/>
+    <row r="976" ht="15.8" customHeight="1"/>
+    <row r="977" ht="15.8" customHeight="1"/>
+    <row r="978" ht="15.8" customHeight="1"/>
+    <row r="979" ht="15.8" customHeight="1"/>
+    <row r="980" ht="15.8" customHeight="1"/>
+    <row r="981" ht="15.8" customHeight="1"/>
+    <row r="982" ht="15.8" customHeight="1"/>
+    <row r="983" ht="15.8" customHeight="1"/>
+    <row r="984" ht="15.8" customHeight="1"/>
+    <row r="985" ht="15.8" customHeight="1"/>
+    <row r="986" ht="15.8" customHeight="1"/>
+    <row r="987" ht="15.8" customHeight="1"/>
+    <row r="988" ht="15.8" customHeight="1"/>
+    <row r="989" ht="15.8" customHeight="1"/>
+    <row r="990" ht="15.8" customHeight="1"/>
+    <row r="991" ht="15.8" customHeight="1"/>
+    <row r="992" ht="15.8" customHeight="1"/>
+    <row r="993" ht="15.8" customHeight="1"/>
+    <row r="994" ht="15.8" customHeight="1"/>
+    <row r="995" ht="15.8" customHeight="1"/>
+    <row r="996" ht="15.8" customHeight="1"/>
+    <row r="997" ht="15.8" customHeight="1"/>
+    <row r="998" ht="15.8" customHeight="1"/>
+    <row r="999" ht="15.8" customHeight="1"/>
+    <row r="1000" ht="15.8" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11576,21 +11720,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="B8:C8">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="B8:C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Tester,Developer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B6:C7">
+    <dataValidation type="list" allowBlank="1" sqref="B6:C7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"High,Normal,Low"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>